--- a/data/hotels_by_city/Dallas/Dallas_shard_384.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_384.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="527">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>KDUB7</t>
+  </si>
+  <si>
     <t>06/12/2018</t>
   </si>
   <si>
@@ -186,6 +189,9 @@
     <t>we stayed here as a family group for a wedding.  Everyone on the staff is just great - very helpful and friendly. We felt well cared for during our stay.The furnishings and decor are just a touch on the dated side, which doesn’t bother me, but others might notice. One group in our party had some furnishings that really should be retired (big rips in the ottoman, for example.). The rooms are clean, though, and that’s the important thing.Yes, it can be a little confusing getting ‘here from there.’  We figured out via GPS and trial and error how to bypass the bypass, as it were. Certainly not a deal breaker by any means.Overall, friendly service, good value.More</t>
   </si>
   <si>
+    <t>HallsburgSodbuster</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r564655015-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -207,6 +213,9 @@
     <t>Nice stay was greeted with smiles from the reception desk. Big room, nice King Bed and nice Bath. Very quiet and close to several restaurants in walking distance, Johnny Carino, Chili's, Chick Filet. We arrived at night and couldn't see the hotel at first needs a little more light and is at the end of the road that passes all the restaurants. Behind the hotel is Target. They all share that particular road. We approached from I-35 so there were signs on hwy 287 but didn't see the hotel. Maybe the trees hide the sign from that side. Still overall a great stay and the morning Breakfast was hot and very clean. Coffee was excellent with a huge assortment of creamers. Good food. The staff made sure everything was stocked.More</t>
   </si>
   <si>
+    <t>TSVacationlover</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r555748980-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -237,6 +246,9 @@
     <t>This hotel has good south of the city location. Somewhat rural but with all of the conveniences of the city. With a 25 min ride to Dallas The front desk staff is extremely friendly, professional, and very helpful. The room are clean and comfortable. However the time is near for a remodel. Like the title says the location is great for business south of the city and there is plenty of businesses in the area. Breakfast is always a nice inclusion. They do a fine job it’s fresh and hot. When I’m in this area I will be staying at this hotel again. I would recommend this hotel and give it 3.9 stars due to the need of an upgradeMore</t>
   </si>
   <si>
+    <t>Ron L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r540722921-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -264,6 +276,9 @@
     <t>NOV 8th, 2017 Late night smoker on Non Smoking Floor. Not the fault of hotel. Smell was sickening. Filled hall and made it into rooms. Hotel responded appropriately, with deodorizer. Window would not open to clear air. The next morning. Smoker again was smelling up the floor. Staff could not have been nicer. But smoke continued with us to next destination. Not Tobacco.More</t>
   </si>
   <si>
+    <t>skaarj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r531696124-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -291,6 +306,9 @@
     <t>I stayed in a very spacious nice big and clean room with a very comfortable bed. The staff was friendly and all smiles. However I could not sleep the first night due to the extremely loud highway next to the hotel. I grew up next to I-45 in Houston and am use to sleeping in loud conditions, but this was ridiculously loud. (-1) The rooms need some sort of sound dampening. The extremely slow wifi was useless and kept cutting out. I resorted to using my cell phones hot spot service. (-1) Otherwise this hotel would get a 5 out of 5.More</t>
   </si>
   <si>
+    <t>CameronCCC</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r491907282-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -318,6 +336,9 @@
     <t>The member "advance purchase" rate is non-refundable! It does not say non-refundable except in very fine print when you book...had a business trip scheduled and selected this rate when booking. I was not able to make the trip and called to cancel the reservation. I was told it was non-refundable and the charge had already hit my credit card. I talked to everyone trying to get a refund and everyone refused to help. I know it is a policy (not very well spelled out on-line), but I also know you have the chance to give great customer service and help a customer out. They then said to just dispute it with my credit card company. Yikes! I hope the $113 was worth it...you lost business for life! More</t>
   </si>
   <si>
+    <t>Michelle T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r489317509-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -345,6 +366,9 @@
     <t>This hotel sprays their rooms heavily and you cannot open the windows. Even though notations were made in the reservation concerning the allergies to air sprays, they could not provide a room that had not been very heavily sprayed. For us this made the hotel a one star, but in fairness we rated it 3 since most people do not have this allergy. The hotel is fairly clean and the beds are comfortable with plenty of feather free pillows. The breakfast is typical Holiday Inn Express... good and free.More</t>
   </si>
   <si>
+    <t>Jacqueline M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r485150290-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -375,6 +399,9 @@
     <t>Just a short weekend get away, we attended the festival on Saturday, and checked in that afternoon around 4pm. Checking in was quick and easy, the room was clean and comfortable. Just sat down on the bed for a moment next thing we knew it was almost 8pm. Only draw back was we were on the 2nd floor and someone on the floor let their kids run up and down the hall between 7am and 8.More</t>
   </si>
   <si>
+    <t>Craneninja</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r484794817-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -399,6 +426,9 @@
     <t>Incredibly clean and well appointed.  Highlights include: Keurig in room (with 4 pods), nice sized not-so-mini fridge, multiple pillow choices (labeled firm &amp; soft), free bottled water at the front desk.  The location is great with multiple food and shopping options within walking distance.  Even more shopping and food just across the freeway.  Great home base for quick access to most any activity in Waxahachie, especially the Scarborough Faire Renaissance Festival.More</t>
   </si>
   <si>
+    <t>JerryVirginia</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r471451291-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -426,6 +456,9 @@
     <t>Stayed in March 2017.  Very nice.  Spacious room and bathroom; restaurants (including a Chili's and Italian) are an easy 100-yard walk. Free breakfast very good.  Room quiet and nicely done.  You may need a GPS to find the place off I-35E North; that was a little challengingMore</t>
   </si>
   <si>
+    <t>Connie M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r465113953-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -453,6 +486,9 @@
     <t>I had business there for 4 nights and stayed at this hotel. The front desk was very nice. Three nights I was there a group of guys backed a truck up out side of my room window and grilled food. I was trying to get work done in my room and then watch some TV. They were talking loud. There was plenty of places they could have backed their truck where it would not bother anyone. The other thing that made me very upset is the entrance side door was not secure. You did not need a key to get in the side door. I am a woman that travels alone and did not feel secure. I did tell the front desk and he said he would tell the manager. I would not stay at this hotel again.More</t>
   </si>
   <si>
+    <t>One2travelUsa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r463019196-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -474,6 +510,9 @@
     <t>Got in late so not much time to enjoy but it was a good stopping off post. Next door several restaurants.  Chick a fil Olive Garden etc. Busy there as people are using a cut off from Target. Good breakfast except pancake machine sometimes work,  TV had some issues with channels above a certain number and could not get them. Front desk could not get them either.More</t>
   </si>
   <si>
+    <t>Deron J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r455434242-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -501,6 +540,9 @@
     <t>There are three things I want in a hotel these days. I want quit, clean, and a good shower. I had a king suite and this is one of the quietest hotels i've ever stayed in.  It was pretty busy during my stay. The noise of the hallway stayed out of the room and the HVAC noise was muted. The water pressure in the shower was fantastic, and the room was very clean all three nights I was there.   The decor isn't exactly modern and the interior may be outdated, but the staff was great. The hotel is located near shopping and several restaurants and is also convenient to local highways. Solid hotel.More</t>
   </si>
   <si>
+    <t>Tom K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r450700558-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -525,6 +567,9 @@
     <t>Two of us stayed for 2 nights. Room was clean and comfortable. Checkin and Check out  was easy. Friendly staff and helpful with food options in the area. Free breakfast was nice, there was nothing fancy but we were able to find a few Gluten Free things to eat. We checked with the front desk about the Gluten Free at breakfast when we checked in and they were extremely helpful. They always had coffee, water and snacks available in the lobby. I would stay at this hotel again.More</t>
   </si>
   <si>
+    <t>Michelle S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r447792478-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -552,6 +597,9 @@
     <t>We stayed here for 2 nights while in town visiting family. Conveniently located near restaurants and shopping. Staff was friendly, and the breakfast buffet offered variety of hot and cold selections. No complaints.More</t>
   </si>
   <si>
+    <t>trackemdown</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r427537115-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -579,6 +627,9 @@
     <t>I found this hotel to be clean and friendly. The staff is helpful with anything you may need. The property is well maintained and the rooms are clean and modern. There's plenty of places to fine within a mile too.More</t>
   </si>
   <si>
+    <t>oklahomadave465</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r419096899-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -606,6 +657,9 @@
     <t>No complaints. Typical Holiday Inn Express. Hotel was clean &amp; well maintained. Staff was friendly.Breakfast was just OK (same as any other Holiday Inn Express). There were snacks available in the lobby which was a nice surprise. Goldfish, animal crackers, Chex mix.More</t>
   </si>
   <si>
+    <t>Amanda L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r410716835-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -628,6 +682,9 @@
   </si>
   <si>
     <t>We stay at holiday inn express wherever we go.  And this location meets our expectations. they offer a clean and quite overnight accommodations for a good price. Everything you need is right here for this sleepy area. It's just off of Hwy 45 - easy on and off access. More</t>
+  </si>
+  <si>
+    <t>txagt</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r382147020-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
@@ -665,6 +722,9 @@
 We stayed in room 209 but I...The room was very clean, smelled clean and was neat.  It was conveniently located and parking was plentiful and easy to get in and out.  What was not good was the super loud humming equipment noise that we heard the minute we got to our room.  If it had been constant we could have tolerated it, but every few seconds it would cycle on, then off, then back on again so it was a very loud any annoying sound.  And yep, it continued throughout the night.I called the front desk which I had to do with my cell phone because the phone in the room didn't work.  They said the hotel was full so they couldn't switch rooms, had no idea what the noise was - REALLY????  But they could bring up a box fan to drown out the noise, which they did.It helped - it did not eliminate the noise.  So between that and the super bright lights that shinned directly into our room from the parking lot across the street, we didn't sleep.  We could haven gotten a tan from the brightness.  No, the curtains didn't close so no way to avoid the super bright light.We didn't get any sleep, had to get up and visit with family super tired, then drive another 6 hours home - all with no sleep.  Made for a very miserable quick trip.We stayed in room 209 but I have a hard time you couldn't hear that noise in several rooms.  I have a hard time believing no one has ever reported the problem before.More</t>
   </si>
   <si>
+    <t>TCherry87</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r371834536-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -692,6 +752,9 @@
     <t>This stay was also very short but the room was great, but this time the bed was more comfortable than the last. They have a great selection for their continental breakfast, but some of it could have been a little fresher. Otherwise it was a wonderful stay at a this hotel.More</t>
   </si>
   <si>
+    <t>cubfan44</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r361617224-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -716,6 +779,9 @@
     <t>Stayed one night at this hotel while traveling to San Antonio.  The front desk clerk, Stormi was so charming, personable, and helpful.  She was delightful and was a great start to our stay.  The common areas of the hotel are clean and give a nice first impression.  Our room was a different story.  We had booked with member reward points and were given a two bedroom suite.  The room was dingy feeling.  There was not adequate lighting in the living space and the carpet was stained in both the living area and bedrooms.  There were pieces of food left on the chairs and both the sofa and chairs had stains as well.  The room just seemed out of date and tired.   It was not the rooms we expect when we stay at Holiday Inn Express.  We have stayed at the Hampton Inn in Waxahachie and it is a much nicer hotel.  While the staff was super, we were very disappointed in the room.  Not sure we would stay again.  More</t>
   </si>
   <si>
+    <t>DMH_Aberdeen</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r361313578-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -743,6 +809,9 @@
     <t>This is a nice clean hotel with a very nice and helpful staff.  Rooms were good and the beds reasonably comfortable.   Some definite plusses were the afternoon snacks,  the breakfast, and most importantly fast wifi.Some negatives,  the bathtub was quite slick,  something to prevent slips is needed. The info card for internet said to call the front desk to borrow a connection cable but they did not have any.Be aware that if you are arriving from the north you essentially need to access the hotel via what looks like the Chili's parking lot.  The street is not well marked.More</t>
   </si>
   <si>
+    <t>ChubbaHill</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r350665421-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -770,6 +839,9 @@
     <t>I have stayed here before and don't recall any real issues. This trip, the staff, especially the front desk staff, we're all outstanding. The hotel is very conveniently located to 287 and other major highways, close to shopping and restaurants and even a nearby movie theater if you have some down time.24/7 coffee in the lobby, fresh baked cookies and an ok breakfast are pluses too.My issue this trip is all about the housekeeping. The public areas were all clean and fresh. My room was ok, not great except for the bathroom. LE hairs in the tub, on the floor and in a corner near the tub. The ones on the floor look like they have been there a while. There was a broken ground prong from a plug sticking out of the outlet under the hairdryer and one day during my stay they didn't make up my room at all.I'd give them a higher score, but housekeeping is too key to a hotels main purpose to be taken lightly. I will try them again but my next visit I will not be as understanding of cleaning and safety fails.More</t>
   </si>
   <si>
+    <t>Wayne P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r333030714-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -797,6 +869,9 @@
     <t>During a recent business trip to Waxahachie (South of Dallas), we stayed 7 nights.  The Holiday Inn is located close to a variety of shopping and restaurants. Many are within walking distance.  The room was clean and out of the 15 or so customers there for our event, I did not hear anyone complain.My bed was a little on the firm side for my preference.More</t>
   </si>
   <si>
+    <t>D P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r331214934-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -824,6 +899,9 @@
     <t>Really centrally located to food, shopping.  Nice for the money and clean rooms - good customer service - nice chain sort of motel but it's safe and they do allow some smoking rooms - if you smoke... nice front desk clerks - rooms are very clean and comfortable -More</t>
   </si>
   <si>
+    <t>Katrina K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r305344603-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -851,6 +929,9 @@
     <t>Our l shaped room had two queen beds, each in a different section of the room. The room size was nice and it was very clean. The hotel staff was extremely courteous and helpful. Breakfast was the usual fare but the coffee was started early and there was no problem using the breakfast room before it opened.Parking was plentiful and the hotel had a good location close to restaurants and stores.More</t>
   </si>
   <si>
+    <t>Jan W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r305141020-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -878,6 +959,9 @@
     <t>The staff was helpful, but not overly friendly. The hotel appeared clean and was nicely decorated with a homey touch. And, it was conveniently located near a number of restaurants and shopping.The rooms were clean, cozy, secure and quiet. The beds were soft and very comfortable too. And, the complimentary continental breakfast was pretty decent. It had a variety of items for any time constraint or preference.More</t>
   </si>
   <si>
+    <t>Felicia C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r291585140-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -905,6 +989,9 @@
     <t>Great location! Close to the softballs fields and restaurants, which is important to us. Great staff!Only compliant 2nd floor is a non-smoking floor but you can smell the smoking odor from the elavator. More</t>
   </si>
   <si>
+    <t>Dawnelle L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r290156148-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -929,6 +1016,9 @@
     <t>This hotel is conveniently located right off the main highway with access to lots of restaurants and shopping.  The desk clerks are extremely friendly and helpful.  The room was quiet with everything you need.More</t>
   </si>
   <si>
+    <t>DAC61</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r286978324-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -947,6 +1037,9 @@
     <t>We stayed here on June 26th and 27th. We booked 3 rooms for a family event that was in the area. They allowed us to check in !!!early and check out late when we left. The staff was very friendly and helped us with dining options. I would highly recommend this hotel. Rooms were clean and beds and pillows very comfortable . Go and enjoy your stay !!More</t>
   </si>
   <si>
+    <t>Merle H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r284545096-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -974,6 +1067,9 @@
     <t>2 star hotel with 5 star stay hotel room very comfortable check in was easy and fast with a very large smile. The 2 young ladies working were great helpful and make sure our stay was good. Wi-Fi was not very good in one room 3rd floor suite so moved us to a 2nd floor suite still was not good but only staying over night. Great place to stay. More</t>
   </si>
   <si>
+    <t>The_Duke7779</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r274838580-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -992,6 +1088,9 @@
     <t>This is the 2nd time we have stayed in this hotel and still pleases with the experience.  The location is great, just off the highway with good choices for food nearby. Staff was very helpful everytime we needed something, even directions. We will be back!!More</t>
   </si>
   <si>
+    <t>KitCat14</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r267537819-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -1013,6 +1112,9 @@
     <t>My boyfriend and I were in town to go to Scarborough Faire and decided that after a full day of walking around, we'd get a hotel instead of driving back to Dallas the same day.  Check in was on Sunday.  I had requested an early check-in and even though they were COMPLETELY full the night before, was told when I called that morning that it would be set up.  When I got there, Krystal, also the manager on duty I noticed, greeted me with a smile and checked me in quickly.  I had used hotel points + a little cash and it was totally worth it.  Was upgraded to a larger suite (Room 217) that was very clean, neat, and incredibly spacious. The breakfast in the morning tasted good, although their pancake maker spits out small little pancakes, so I had to make 6 total for both of us.  The highway noise didn't bother either of us that night, although in the morning it seemed to be more noticeable, but even then, hardly at all.  All in all, it was a great choice and I'm so glad that we stayed here!  We will definitely be back!More</t>
   </si>
   <si>
+    <t>John B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r249440516-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -1034,6 +1136,9 @@
     <t>Overall a good choice - not over the top.  But clean, quiet and nice light breakfast choices.  Good coffee and not too close to the road so minimal road noise.  A fair number of construction workers stay there, so sometimes debris in hallway from their boots.  Friendly staff.More</t>
   </si>
   <si>
+    <t>Juan Carlos M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r249140430-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -1058,6 +1163,9 @@
     <t>I just got back from my stay at the Holiday Inn Express in Waxahachie. Upon arrival, the entire first floor and front area smelt after cigarette smoke which continued all stay long, mattress was well used and needs to be changed, TV remote without batteries and hair residua in the bathroom. As a platinum member of IHG Hotels I expected a bit more quality.More</t>
   </si>
   <si>
+    <t>Heather B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r240690648-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -1079,6 +1187,9 @@
     <t>We just got back from our stay at the Holiday Inn Express in Waxahachie. Upon arrival, we were advised we received a free upgrade on our room. It was so spacious, clean, everything you would need for a stay. Customer service was excellent during the entire stay as well. I would highly recommend this hotel and intend on staying there when we visit again.More</t>
   </si>
   <si>
+    <t>SuZi520</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r239586897-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -1100,6 +1211,9 @@
     <t>We have stayed here several times and have always had a great stay.  It is clean and quiet and the employees are very friendly.  It is a little hard to get to but go through the Target parking lot for a shortcut.  There are several restaurants within walking distance.  Breakfast is the typical Holiday Inn Express fare but is included in the room price.More</t>
   </si>
   <si>
+    <t>FourPackerBackers</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r214541548-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -1121,6 +1235,9 @@
     <t>Gal at the front desk was GREAT (Kristen, I believe)!  She was well informed of the area and was competent in giving us directions, as our GPS took us to the middle of nowhere. She was warm and welcoming upon arrival and greeted us with IHG reward member "gifts" (water and trail mix).  She took pride in the hotel.  We were also upgraded to a Corner King Suite which was HUGE! Unit had two loveseat sized couches, a chair, several side tables, a desk, a kitchenette, two TV's, a king size bed and a separate bathroom. Again it was HUGE!   While it was not perfect (some stains, carpet wear, etc), it was definitely above average. My only real complaint is that the bathroom vanity was not made for a shorter person, it was difficult using the sink because it was quite deep and tall. Also, there was some sort of dirty tubing under the vanity that was visible and not very attractive to look at.  GREAT water pressure in the shower!  Breakfast was the standard Holiday Inn Express buffet, which has always been satisfactory.  Would recommend and stay here again if in the area, especially with the IHG reward member perks.More</t>
   </si>
   <si>
+    <t>Moe B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r210354246-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -1142,6 +1259,9 @@
     <t>We had tried to check in to the Holiday Inn Express that is a bit further North, but they were booked (sorry can't remember the name of the town, we were very tired from driving) the lady at the front desk was super great! She called the Wxahachie location for us and got us a room for the night, she also let us us the free WiFi to get directions printed off and allowed us to use the restroom. Our Tom Tom did not find the Waxahachie location and so wie called the hotel, the guy was GREAT, don't know his name, but his sister works there too. He guided us in with good directions and was very patient with me when I was stressed out and tired. The only issue was had was with getting the computer to work/print in the business center. They front desk clerk tried to help but could not get it working either. So he went behind the counter and printed out directions for us. The room was VERY nice, clean and the bed was wonderful, felt like it had a padded mattress cover on it. We slept very well. Shower was nice and hot with a great spray to it. Breakfast was good, hot and fresh. We stayed June 2 and then on our way back home we stayed again on June 13. Both times it was great! We did not have time to...We had tried to check in to the Holiday Inn Express that is a bit further North, but they were booked (sorry can't remember the name of the town, we were very tired from driving) the lady at the front desk was super great! She called the Wxahachie location for us and got us a room for the night, she also let us us the free WiFi to get directions printed off and allowed us to use the restroom. Our Tom Tom did not find the Waxahachie location and so wie called the hotel, the guy was GREAT, don't know his name, but his sister works there too. He guided us in with good directions and was very patient with me when I was stressed out and tired. The only issue was had was with getting the computer to work/print in the business center. They front desk clerk tried to help but could not get it working either. So he went behind the counter and printed out directions for us. The room was VERY nice, clean and the bed was wonderful, felt like it had a padded mattress cover on it. We slept very well. Shower was nice and hot with a great spray to it. Breakfast was good, hot and fresh. We stayed June 2 and then on our way back home we stayed again on June 13. Both times it was great! We did not have time to use the pool, but it was right outside our window and it looked clean. The June 13 visit a very nice girl checked us in.More</t>
   </si>
   <si>
+    <t>CozumelCris</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r210205260-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -1160,6 +1280,9 @@
     <t>Stayed at the Holiday Inn Express for 2 nights (Monday, Tuesday June 9 &amp; 10) while I attend a training school in Waxahachie.I arrived and check-in was a breeze and went to my room on the second floor. My room was nice and I had a view of the pool. As I unpacked, I remembered I had forgotten to bring shampoo. Luckily, the hotel had those in the bathroom along with conditioner, lotion &amp; even shower gel. I must say that I found the bed and pillows were excellent and I had no problems getting comfortable and relaxing. The nearby restaurants are within walking distance and the Target located behind the hotel is there if you need anything. I had brought water bottles and drinks from home and used the refrigerator located in the room. The water pressure was really good and had no issue running out of hot water. The only thing I had an issue with was the elevator, there is only 1 and it can be a slow wait. Check out was as easy as the check-in :)Overall, I would return to this hotel and stay there.More</t>
   </si>
   <si>
+    <t>TwotimesMommy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r142302614-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -1175,6 +1298,9 @@
     <t xml:space="preserve">We stayed here two nights while visiting family. When I first arrived, our room on the first floor had a dead cricket and a couple dead water bugs. Did not give me a good feeling.  We did not tell anyone just brushed to the side.  However, housekeeping did our room the next morning and they were gone and the room seemed very clean. The staff was super friendly and really were sweet to my girls. We had a great stay and the facility was very nice. Can't say enough about the staff-the night desk, the morning desk, breakfast staff and housekeeping. One of the friendliest places we have been. </t>
   </si>
   <si>
+    <t>ManUnited8989</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r135275436-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -1202,6 +1328,9 @@
     <t>I spent one night at the HIE in July.  Everyone at the hotel was very nice.  My room was exactly as expected.  It was clean and it had everything I needed.  I only used the free wifi for a little while, but it worked well.  Parking is also free.The hotel was a little hard to find.  If you use Google Maps, it will send you to the wrong location.  The hotel is in a very convenient location, with several places to eat nearby.I only had one problem with my stay.  My A/C unit was loud when it turned on.  It did have the option to leave the fan on all the time, and that really helped.  Even with the fan on, it was a little loud when the A/C kicked in.More</t>
   </si>
   <si>
+    <t>MonicafromMiami</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r134532806-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -1220,6 +1349,9 @@
     <t>June 2012</t>
   </si>
   <si>
+    <t>CurryRussell</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r131250821-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -1238,6 +1370,9 @@
     <t>August 2011</t>
   </si>
   <si>
+    <t>dldlcd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r129386956-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -1262,6 +1397,9 @@
     <t>Good location and very clean. Just overpriced for their suite. It's a room that is a little bigger than a standard room but has a two foot divider on each side of the room separating the couch from the bed. No desk but a square table with a worn out business chair. Made computing uncomfortable.  Hence over priced. I've paid less for a better room at other hotels for fifty dollars cheaper. More</t>
   </si>
   <si>
+    <t>Scott M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r123614959-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -1283,6 +1421,9 @@
     <t>We stay in this hotel about 4 times a year while visiting family in the area. The staff is always very nice, they make a point of getting my parents in to a room that makes it easier for them to get around. I was upgraded once to a suite it was very nice and roomy. The breakfast buffet is always clean and well stocked, the staff is very attentive. This is not necessarily a tourist area for most people but a good place ro stay if you are visiting Waxahachie, TX. Easy access to the highways and plenty of chain restaurants near by. There is a nonce strip mall behind it that has a super Target.More</t>
   </si>
   <si>
+    <t>lisandbri</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r120584652-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -1301,6 +1442,9 @@
     <t>November 2011</t>
   </si>
   <si>
+    <t>travelbear77</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r117147886-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -1316,6 +1460,9 @@
     <t>This is about my fourth stay at a Holiday Inn Express in the past couple of months; this was another very nice place, very clean and quiet.  Very nice front desk staff.Also location is very good; right on 287, near 35--Target and many restaurants nearby; in the growing area of Waxahachie.</t>
   </si>
   <si>
+    <t>EdnaJune</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r114948464-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -1334,6 +1481,9 @@
     <t>June 2011</t>
   </si>
   <si>
+    <t>guvnerwl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r88373639-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -1352,6 +1502,9 @@
     <t>November 2010</t>
   </si>
   <si>
+    <t>Reasonable02</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r86086240-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -1373,6 +1526,9 @@
     <t>I have stayed at this hotel minmum 12 times.  I can say that the management, the employee's of this establishment go beyond thier call of duty to help out a customer. I know this for a fact. I have stay here so many times that we are on first name bases almost. They treat you like they would want to be treated themselfs. The lady that puts out the breakfast each day knows i love bacon and when bacon is not served she will come and ask if would like to have some. Now tell me that is not friendly service. I can guarantee you that you will not get the service from another hotel in the area that i get. It is worth the stay and if you have a complaint, take it to the manager and she will defaintly make it right with you right then and there. Don't wait to address an issue till you leave, address it then if you have one and I HAVE NEVER HAD ONE.I would defaintly recommend this hotel to everyone looking for a good night sleep and a place to rest and stay while in need of a hotel.More</t>
   </si>
   <si>
+    <t>Jonathan F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r81871251-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -1391,6 +1547,9 @@
     <t>September 2010</t>
   </si>
   <si>
+    <t>mhetrick0968</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r73675750-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -1406,6 +1565,9 @@
     <t>We live in Waxahachie and our air conditioner had gone out so we went to stay the night at a hotel thinking ok..we could swim and relax while we were waiting for it to get fixed. We were not notified of the pool being closed at time of checkin and did not find out til next morning when we decided to go for swim. Also there was blood spots on our sheets and when we told manager she was rude and didn't seem to care. There are many new hotels un Waxahachie and I would strongly suggest checking out your options before staying here.</t>
   </si>
   <si>
+    <t>mhartman1962</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r22416644-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -1422,6 +1584,9 @@
   </si>
   <si>
     <t>October 2008</t>
+  </si>
+  <si>
+    <t>greg2171</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r6801436-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
@@ -1944,43 +2109,47 @@
       <c r="A2" t="n">
         <v>52099</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>156139</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1992,56 +2161,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>52099</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>156140</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -2061,50 +2234,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>52099</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>156141</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2116,56 +2293,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>52099</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>62046</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -2183,56 +2364,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Y5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>52099</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>156142</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="L6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="O6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2248,56 +2433,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="X6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="Y6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>52099</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>156143</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="K7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="L7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="O7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2309,56 +2498,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="X7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="Y7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>52099</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>5017</v>
+      </c>
+      <c r="C8" t="s">
+        <v>106</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="K8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="O8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -2376,56 +2569,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="X8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="Y8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>52099</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>44209</v>
+      </c>
+      <c r="C9" t="s">
+        <v>116</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="J9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="K9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="L9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="O9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2437,56 +2634,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="X9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="Y9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>52099</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>156144</v>
+      </c>
+      <c r="C10" t="s">
+        <v>127</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="J10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="K10" t="s">
+        <v>131</v>
+      </c>
+      <c r="L10" t="s">
+        <v>132</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
         <v>122</v>
       </c>
-      <c r="L10" t="s">
+      <c r="O10" t="s">
         <v>123</v>
-      </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>114</v>
-      </c>
-      <c r="O10" t="s">
-        <v>115</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="n">
@@ -2502,56 +2703,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="X10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="Y10" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>52099</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>156145</v>
+      </c>
+      <c r="C11" t="s">
+        <v>136</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="J11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="K11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="L11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="O11" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2567,56 +2772,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="X11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="Y11" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>52099</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>36575</v>
+      </c>
+      <c r="C12" t="s">
+        <v>146</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="J12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="K12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="L12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="O12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="P12" t="n">
         <v>3</v>
@@ -2632,56 +2841,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="X12" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="Y12" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>52099</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>29434</v>
+      </c>
+      <c r="C13" t="s">
+        <v>156</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="J13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="K13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="L13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="O13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
@@ -2699,56 +2912,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="X13" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="Y13" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>52099</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>156146</v>
+      </c>
+      <c r="C14" t="s">
+        <v>164</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="J14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="K14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="L14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="O14" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2762,47 +2979,51 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="X14" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="Y14" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>52099</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>63184</v>
+      </c>
+      <c r="C15" t="s">
+        <v>174</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="J15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="K15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="L15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
@@ -2819,56 +3040,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="X15" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="Y15" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>52099</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>6394</v>
+      </c>
+      <c r="C16" t="s">
+        <v>183</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="J16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="K16" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="L16" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="O16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2880,56 +3105,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="X16" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="Y16" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>52099</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>156147</v>
+      </c>
+      <c r="C17" t="s">
+        <v>193</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="J17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="K17" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="L17" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="O17" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2941,56 +3170,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="X17" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="Y17" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>52099</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>156148</v>
+      </c>
+      <c r="C18" t="s">
+        <v>203</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="J18" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="K18" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="L18" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="O18" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3002,47 +3235,51 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="X18" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="Y18" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>52099</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>31273</v>
+      </c>
+      <c r="C19" t="s">
+        <v>213</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="J19" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="K19" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="L19" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
@@ -3059,56 +3296,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="X19" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="Y19" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>52099</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>156149</v>
+      </c>
+      <c r="C20" t="s">
+        <v>222</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="J20" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="K20" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="L20" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="O20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="n">
@@ -3124,56 +3365,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="X20" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="Y20" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>52099</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>156150</v>
+      </c>
+      <c r="C21" t="s">
+        <v>232</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="J21" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="K21" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="L21" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="O21" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3185,47 +3430,51 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="X21" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="Y21" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>52099</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>156151</v>
+      </c>
+      <c r="C22" t="s">
+        <v>242</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="J22" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="K22" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="L22" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
@@ -3242,56 +3491,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="X22" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="Y22" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>52099</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>156152</v>
+      </c>
+      <c r="C23" t="s">
+        <v>251</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="J23" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="K23" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="L23" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="O23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3303,56 +3556,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="X23" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="Y23" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>52099</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>146523</v>
+      </c>
+      <c r="C24" t="s">
+        <v>261</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="J24" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="K24" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="L24" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="O24" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="P24" t="n">
         <v>3</v>
@@ -3370,56 +3627,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="X24" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="Y24" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>52099</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>12060</v>
+      </c>
+      <c r="C25" t="s">
+        <v>271</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="J25" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="K25" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="L25" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="O25" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="n">
@@ -3435,56 +3696,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="X25" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="Y25" t="s">
-        <v>256</v>
+        <v>280</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>52099</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>16125</v>
+      </c>
+      <c r="C26" t="s">
+        <v>281</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="J26" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="K26" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="L26" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="O26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="n">
@@ -3502,56 +3767,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="X26" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="Y26" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>52099</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>34720</v>
+      </c>
+      <c r="C27" t="s">
+        <v>291</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="J27" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="K27" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="L27" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="O27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P27" t="n">
         <v>4</v>
@@ -3569,56 +3838,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="X27" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="Y27" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>52099</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>2464</v>
+      </c>
+      <c r="C28" t="s">
+        <v>301</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>276</v>
+        <v>303</v>
       </c>
       <c r="J28" t="s">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="K28" t="s">
-        <v>278</v>
+        <v>305</v>
       </c>
       <c r="L28" t="s">
-        <v>279</v>
+        <v>306</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="O28" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="P28" t="n">
         <v>4</v>
@@ -3634,56 +3907,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="X28" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="Y28" t="s">
-        <v>283</v>
+        <v>310</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>52099</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>15053</v>
+      </c>
+      <c r="C29" t="s">
+        <v>311</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="J29" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="K29" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
       <c r="L29" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="O29" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3695,56 +3972,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="X29" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
       <c r="Y29" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>52099</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>35673</v>
+      </c>
+      <c r="C30" t="s">
+        <v>321</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>294</v>
+        <v>323</v>
       </c>
       <c r="J30" t="s">
-        <v>295</v>
+        <v>324</v>
       </c>
       <c r="K30" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
       <c r="L30" t="s">
-        <v>297</v>
+        <v>326</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="O30" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3762,47 +4043,51 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>298</v>
+        <v>327</v>
       </c>
       <c r="X30" t="s">
-        <v>299</v>
+        <v>328</v>
       </c>
       <c r="Y30" t="s">
-        <v>300</v>
+        <v>329</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>52099</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>156153</v>
+      </c>
+      <c r="C31" t="s">
+        <v>330</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>302</v>
+        <v>332</v>
       </c>
       <c r="J31" t="s">
-        <v>303</v>
+        <v>333</v>
       </c>
       <c r="K31" t="s">
-        <v>304</v>
+        <v>334</v>
       </c>
       <c r="L31" t="s">
-        <v>305</v>
+        <v>335</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
@@ -3819,56 +4104,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>298</v>
+        <v>327</v>
       </c>
       <c r="X31" t="s">
-        <v>299</v>
+        <v>328</v>
       </c>
       <c r="Y31" t="s">
-        <v>306</v>
+        <v>336</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>52099</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>156154</v>
+      </c>
+      <c r="C32" t="s">
+        <v>337</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="J32" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="K32" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="L32" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>312</v>
+        <v>343</v>
       </c>
       <c r="O32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -3880,56 +4169,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>313</v>
+        <v>344</v>
       </c>
       <c r="X32" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
       <c r="Y32" t="s">
-        <v>315</v>
+        <v>346</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>52099</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>156155</v>
+      </c>
+      <c r="C33" t="s">
+        <v>347</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>316</v>
+        <v>348</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>317</v>
+        <v>349</v>
       </c>
       <c r="J33" t="s">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="K33" t="s">
-        <v>319</v>
+        <v>351</v>
       </c>
       <c r="L33" t="s">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="O33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -3941,56 +4234,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>313</v>
+        <v>344</v>
       </c>
       <c r="X33" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
       <c r="Y33" t="s">
-        <v>321</v>
+        <v>353</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>52099</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>156156</v>
+      </c>
+      <c r="C34" t="s">
+        <v>354</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>323</v>
+        <v>356</v>
       </c>
       <c r="J34" t="s">
-        <v>324</v>
+        <v>357</v>
       </c>
       <c r="K34" t="s">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="L34" t="s">
-        <v>326</v>
+        <v>359</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>327</v>
+        <v>360</v>
       </c>
       <c r="O34" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -4006,56 +4303,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>298</v>
+        <v>327</v>
       </c>
       <c r="X34" t="s">
-        <v>299</v>
+        <v>328</v>
       </c>
       <c r="Y34" t="s">
-        <v>328</v>
+        <v>361</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>52099</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>508</v>
+      </c>
+      <c r="C35" t="s">
+        <v>362</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>329</v>
+        <v>363</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>330</v>
+        <v>364</v>
       </c>
       <c r="J35" t="s">
-        <v>331</v>
+        <v>365</v>
       </c>
       <c r="K35" t="s">
-        <v>332</v>
+        <v>366</v>
       </c>
       <c r="L35" t="s">
-        <v>333</v>
+        <v>367</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>334</v>
+        <v>368</v>
       </c>
       <c r="O35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4071,56 +4372,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>298</v>
+        <v>327</v>
       </c>
       <c r="X35" t="s">
-        <v>299</v>
+        <v>328</v>
       </c>
       <c r="Y35" t="s">
-        <v>335</v>
+        <v>369</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>52099</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>156157</v>
+      </c>
+      <c r="C36" t="s">
+        <v>370</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="J36" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
       <c r="K36" t="s">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="L36" t="s">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="M36" t="n">
         <v>2</v>
       </c>
       <c r="N36" t="s">
-        <v>334</v>
+        <v>368</v>
       </c>
       <c r="O36" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P36" t="n">
         <v>2</v>
@@ -4138,56 +4443,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>341</v>
+        <v>376</v>
       </c>
       <c r="X36" t="s">
-        <v>342</v>
+        <v>377</v>
       </c>
       <c r="Y36" t="s">
-        <v>343</v>
+        <v>378</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>52099</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>19183</v>
+      </c>
+      <c r="C37" t="s">
+        <v>379</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="J37" t="s">
-        <v>346</v>
+        <v>382</v>
       </c>
       <c r="K37" t="s">
-        <v>347</v>
+        <v>383</v>
       </c>
       <c r="L37" t="s">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
       <c r="O37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -4203,56 +4512,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>298</v>
+        <v>327</v>
       </c>
       <c r="X37" t="s">
-        <v>299</v>
+        <v>328</v>
       </c>
       <c r="Y37" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>52099</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>156158</v>
+      </c>
+      <c r="C38" t="s">
+        <v>387</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>352</v>
+        <v>389</v>
       </c>
       <c r="J38" t="s">
-        <v>353</v>
+        <v>390</v>
       </c>
       <c r="K38" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
       <c r="L38" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>356</v>
+        <v>393</v>
       </c>
       <c r="O38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4268,56 +4581,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>298</v>
+        <v>327</v>
       </c>
       <c r="X38" t="s">
-        <v>299</v>
+        <v>328</v>
       </c>
       <c r="Y38" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>52099</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>156159</v>
+      </c>
+      <c r="C39" t="s">
+        <v>395</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>358</v>
+        <v>396</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="J39" t="s">
-        <v>360</v>
+        <v>398</v>
       </c>
       <c r="K39" t="s">
-        <v>361</v>
+        <v>399</v>
       </c>
       <c r="L39" t="s">
-        <v>362</v>
+        <v>400</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>363</v>
+        <v>401</v>
       </c>
       <c r="O39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4333,56 +4650,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>298</v>
+        <v>327</v>
       </c>
       <c r="X39" t="s">
-        <v>299</v>
+        <v>328</v>
       </c>
       <c r="Y39" t="s">
-        <v>364</v>
+        <v>402</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>52099</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>156160</v>
+      </c>
+      <c r="C40" t="s">
+        <v>403</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>365</v>
+        <v>404</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="J40" t="s">
-        <v>367</v>
+        <v>406</v>
       </c>
       <c r="K40" t="s">
-        <v>368</v>
+        <v>407</v>
       </c>
       <c r="L40" t="s">
-        <v>369</v>
+        <v>408</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>370</v>
+        <v>409</v>
       </c>
       <c r="O40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -4404,56 +4725,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="X40" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
       <c r="Y40" t="s">
-        <v>371</v>
+        <v>410</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>52099</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>156161</v>
+      </c>
+      <c r="C41" t="s">
+        <v>411</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>373</v>
+        <v>413</v>
       </c>
       <c r="J41" t="s">
-        <v>374</v>
+        <v>414</v>
       </c>
       <c r="K41" t="s">
-        <v>375</v>
+        <v>415</v>
       </c>
       <c r="L41" t="s">
-        <v>376</v>
+        <v>416</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>370</v>
+        <v>409</v>
       </c>
       <c r="O41" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -4477,41 +4802,45 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>377</v>
+        <v>417</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>52099</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>156162</v>
+      </c>
+      <c r="C42" t="s">
+        <v>418</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>378</v>
+        <v>419</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>379</v>
+        <v>420</v>
       </c>
       <c r="J42" t="s">
-        <v>380</v>
+        <v>421</v>
       </c>
       <c r="K42" t="s">
-        <v>381</v>
+        <v>422</v>
       </c>
       <c r="L42" t="s">
-        <v>382</v>
+        <v>423</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
@@ -4540,50 +4869,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>382</v>
+        <v>423</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>52099</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>156163</v>
+      </c>
+      <c r="C43" t="s">
+        <v>424</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>383</v>
+        <v>425</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>384</v>
+        <v>426</v>
       </c>
       <c r="J43" t="s">
-        <v>385</v>
+        <v>427</v>
       </c>
       <c r="K43" t="s">
-        <v>386</v>
+        <v>428</v>
       </c>
       <c r="L43" t="s">
-        <v>387</v>
+        <v>429</v>
       </c>
       <c r="M43" t="n">
         <v>3</v>
       </c>
       <c r="N43" t="s">
-        <v>388</v>
+        <v>430</v>
       </c>
       <c r="O43" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="P43" t="n">
         <v>4</v>
@@ -4605,56 +4938,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>389</v>
+        <v>431</v>
       </c>
       <c r="X43" t="s">
-        <v>390</v>
+        <v>432</v>
       </c>
       <c r="Y43" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>52099</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>156164</v>
+      </c>
+      <c r="C44" t="s">
+        <v>434</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>392</v>
+        <v>435</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>393</v>
+        <v>436</v>
       </c>
       <c r="J44" t="s">
-        <v>394</v>
+        <v>437</v>
       </c>
       <c r="K44" t="s">
-        <v>395</v>
+        <v>438</v>
       </c>
       <c r="L44" t="s">
-        <v>396</v>
+        <v>439</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>397</v>
+        <v>440</v>
       </c>
       <c r="O44" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P44" t="n">
         <v>4</v>
@@ -4678,50 +5015,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>396</v>
+        <v>439</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>52099</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>156165</v>
+      </c>
+      <c r="C45" t="s">
+        <v>441</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>398</v>
+        <v>442</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>399</v>
+        <v>443</v>
       </c>
       <c r="J45" t="s">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="K45" t="s">
-        <v>401</v>
+        <v>445</v>
       </c>
       <c r="L45" t="s">
-        <v>402</v>
+        <v>446</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>403</v>
+        <v>447</v>
       </c>
       <c r="O45" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -4735,41 +5076,45 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>402</v>
+        <v>446</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>52099</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>156166</v>
+      </c>
+      <c r="C46" t="s">
+        <v>448</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>404</v>
+        <v>449</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>405</v>
+        <v>450</v>
       </c>
       <c r="J46" t="s">
-        <v>406</v>
+        <v>451</v>
       </c>
       <c r="K46" t="s">
-        <v>407</v>
+        <v>452</v>
       </c>
       <c r="L46" t="s">
-        <v>408</v>
+        <v>453</v>
       </c>
       <c r="M46" t="n">
         <v>3</v>
@@ -4796,56 +5141,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>409</v>
+        <v>454</v>
       </c>
       <c r="X46" t="s">
-        <v>410</v>
+        <v>455</v>
       </c>
       <c r="Y46" t="s">
-        <v>411</v>
+        <v>456</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>52099</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>8371</v>
+      </c>
+      <c r="C47" t="s">
+        <v>457</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>412</v>
+        <v>458</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>413</v>
+        <v>459</v>
       </c>
       <c r="J47" t="s">
-        <v>414</v>
+        <v>460</v>
       </c>
       <c r="K47" t="s">
-        <v>415</v>
+        <v>461</v>
       </c>
       <c r="L47" t="s">
-        <v>416</v>
+        <v>462</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>417</v>
+        <v>463</v>
       </c>
       <c r="O47" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P47" t="n">
         <v>4</v>
@@ -4869,50 +5218,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>418</v>
+        <v>464</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>52099</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>156167</v>
+      </c>
+      <c r="C48" t="s">
+        <v>465</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>419</v>
+        <v>466</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>420</v>
+        <v>467</v>
       </c>
       <c r="J48" t="s">
-        <v>421</v>
+        <v>468</v>
       </c>
       <c r="K48" t="s">
-        <v>422</v>
+        <v>469</v>
       </c>
       <c r="L48" t="s">
-        <v>423</v>
+        <v>470</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>424</v>
+        <v>471</v>
       </c>
       <c r="O48" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -4936,50 +5289,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>423</v>
+        <v>470</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>52099</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>156168</v>
+      </c>
+      <c r="C49" t="s">
+        <v>472</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>425</v>
+        <v>473</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>426</v>
+        <v>474</v>
       </c>
       <c r="J49" t="s">
-        <v>427</v>
+        <v>475</v>
       </c>
       <c r="K49" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
       <c r="L49" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>403</v>
+        <v>447</v>
       </c>
       <c r="O49" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P49" t="n">
         <v>4</v>
@@ -4999,50 +5356,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>52099</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>156169</v>
+      </c>
+      <c r="C50" t="s">
+        <v>478</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>430</v>
+        <v>479</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>431</v>
+        <v>480</v>
       </c>
       <c r="J50" t="s">
-        <v>432</v>
+        <v>481</v>
       </c>
       <c r="K50" t="s">
-        <v>433</v>
+        <v>482</v>
       </c>
       <c r="L50" t="s">
-        <v>434</v>
+        <v>483</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>435</v>
+        <v>484</v>
       </c>
       <c r="O50" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P50" t="n">
         <v>4</v>
@@ -5062,50 +5423,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>434</v>
+        <v>483</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>52099</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>156170</v>
+      </c>
+      <c r="C51" t="s">
+        <v>485</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>436</v>
+        <v>486</v>
       </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>437</v>
+        <v>487</v>
       </c>
       <c r="J51" t="s">
-        <v>438</v>
+        <v>488</v>
       </c>
       <c r="K51" t="s">
-        <v>439</v>
+        <v>489</v>
       </c>
       <c r="L51" t="s">
-        <v>440</v>
+        <v>490</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>441</v>
+        <v>491</v>
       </c>
       <c r="O51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P51" t="n">
         <v>4</v>
@@ -5129,50 +5494,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>440</v>
+        <v>490</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>52099</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>156171</v>
+      </c>
+      <c r="C52" t="s">
+        <v>492</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>442</v>
+        <v>493</v>
       </c>
       <c r="G52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>443</v>
+        <v>494</v>
       </c>
       <c r="J52" t="s">
-        <v>444</v>
+        <v>495</v>
       </c>
       <c r="K52" t="s">
-        <v>445</v>
+        <v>496</v>
       </c>
       <c r="L52" t="s">
-        <v>446</v>
+        <v>497</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>447</v>
+        <v>498</v>
       </c>
       <c r="O52" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -5196,50 +5565,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>448</v>
+        <v>499</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>52099</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>35786</v>
+      </c>
+      <c r="C53" t="s">
+        <v>500</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>449</v>
+        <v>501</v>
       </c>
       <c r="G53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
       <c r="J53" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
       <c r="K53" t="s">
-        <v>452</v>
+        <v>504</v>
       </c>
       <c r="L53" t="s">
-        <v>453</v>
+        <v>505</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>454</v>
+        <v>506</v>
       </c>
       <c r="O53" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P53" t="n">
         <v>4</v>
@@ -5263,41 +5636,45 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>453</v>
+        <v>505</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>52099</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>156172</v>
+      </c>
+      <c r="C54" t="s">
+        <v>507</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>455</v>
+        <v>508</v>
       </c>
       <c r="G54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>456</v>
+        <v>509</v>
       </c>
       <c r="J54" t="s">
-        <v>457</v>
+        <v>510</v>
       </c>
       <c r="K54" t="s">
-        <v>458</v>
+        <v>511</v>
       </c>
       <c r="L54" t="s">
-        <v>459</v>
+        <v>512</v>
       </c>
       <c r="M54" t="n">
         <v>2</v>
@@ -5326,50 +5703,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>459</v>
+        <v>512</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>52099</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>156173</v>
+      </c>
+      <c r="C55" t="s">
+        <v>513</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>460</v>
+        <v>514</v>
       </c>
       <c r="G55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>461</v>
+        <v>515</v>
       </c>
       <c r="J55" t="s">
-        <v>462</v>
+        <v>516</v>
       </c>
       <c r="K55" t="s">
-        <v>463</v>
+        <v>517</v>
       </c>
       <c r="L55" t="s">
-        <v>464</v>
+        <v>518</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>465</v>
+        <v>519</v>
       </c>
       <c r="O55" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -5393,50 +5774,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>464</v>
+        <v>518</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>52099</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>156174</v>
+      </c>
+      <c r="C56" t="s">
+        <v>520</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>466</v>
+        <v>521</v>
       </c>
       <c r="G56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>467</v>
+        <v>522</v>
       </c>
       <c r="J56" t="s">
-        <v>468</v>
+        <v>523</v>
       </c>
       <c r="K56" t="s">
-        <v>469</v>
+        <v>524</v>
       </c>
       <c r="L56" t="s">
-        <v>470</v>
+        <v>525</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>471</v>
+        <v>526</v>
       </c>
       <c r="O56" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -5460,7 +5845,7 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>470</v>
+        <v>525</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_384.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_384.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="694">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,39 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>KDUB7</t>
-  </si>
-  <si>
-    <t>06/12/2018</t>
+    <t>08/22/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r607463793-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>56852</t>
+  </si>
+  <si>
+    <t>295503</t>
+  </si>
+  <si>
+    <t>607463793</t>
+  </si>
+  <si>
+    <t>08/17/2018</t>
+  </si>
+  <si>
+    <t>Great place to stay to break a trip</t>
+  </si>
+  <si>
+    <t>I stayed here for a single night, and found it to be a first-rate Holiday Inn. The front-desk clerk was warm and friendly, and quickly checked me in without rushing me. I found the facility to be up to date and clean, and would certainly stay here again.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r575051435-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
-    <t>56852</t>
-  </si>
-  <si>
-    <t>295503</t>
-  </si>
-  <si>
     <t>575051435</t>
   </si>
   <si>
@@ -189,7 +207,46 @@
     <t>we stayed here as a family group for a wedding.  Everyone on the staff is just great - very helpful and friendly. We felt well cared for during our stay.The furnishings and decor are just a touch on the dated side, which doesn’t bother me, but others might notice. One group in our party had some furnishings that really should be retired (big rips in the ottoman, for example.). The rooms are clean, though, and that’s the important thing.Yes, it can be a little confusing getting ‘here from there.’  We figured out via GPS and trial and error how to bypass the bypass, as it were. Certainly not a deal breaker by any means.Overall, friendly service, good value.More</t>
   </si>
   <si>
-    <t>HallsburgSodbuster</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r602135340-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>602135340</t>
+  </si>
+  <si>
+    <t>08/02/2018</t>
+  </si>
+  <si>
+    <t>Watch your billing!</t>
+  </si>
+  <si>
+    <t>We booked through Hotels.com and paid online prior to check in.  A week later we reviewed our Visa and discovered we were billed a second time by the hotel.  Hotels.com investigated and they were told the charges were incidentals. Really? We checked in at 9pm and left at 7am the following day..... Hotel agreed to credit our account.  How many times does this occur??MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>KenzieShore11, General Manager at Holiday Inn Express Hotel &amp; Suites, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>We booked through Hotels.com and paid online prior to check in.  A week later we reviewed our Visa and discovered we were billed a second time by the hotel.  Hotels.com investigated and they were told the charges were incidentals. Really? We checked in at 9pm and left at 7am the following day..... Hotel agreed to credit our account.  How many times does this occur??More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r595242448-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>595242448</t>
+  </si>
+  <si>
+    <t>07/11/2018</t>
+  </si>
+  <si>
+    <t>Bounce house bed</t>
+  </si>
+  <si>
+    <t>Room was clean. Great water pressure.  A/c worked great.  Bed was terrible and needed updating.  Every movement from my husband felt like I was sitting in the middle of a trampoline and someone else climbed on.  Not a restful night because of the bed but the room was clean.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r564655015-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
@@ -213,9 +270,6 @@
     <t>Nice stay was greeted with smiles from the reception desk. Big room, nice King Bed and nice Bath. Very quiet and close to several restaurants in walking distance, Johnny Carino, Chili's, Chick Filet. We arrived at night and couldn't see the hotel at first needs a little more light and is at the end of the road that passes all the restaurants. Behind the hotel is Target. They all share that particular road. We approached from I-35 so there were signs on hwy 287 but didn't see the hotel. Maybe the trees hide the sign from that side. Still overall a great stay and the morning Breakfast was hot and very clean. Coffee was excellent with a huge assortment of creamers. Good food. The staff made sure everything was stocked.More</t>
   </si>
   <si>
-    <t>TSVacationlover</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r555748980-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -234,9 +288,6 @@
     <t>January 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>IHGService, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites, responded to this reviewResponded March 16, 2018</t>
   </si>
   <si>
@@ -246,9 +297,6 @@
     <t>This hotel has good south of the city location. Somewhat rural but with all of the conveniences of the city. With a 25 min ride to Dallas The front desk staff is extremely friendly, professional, and very helpful. The room are clean and comfortable. However the time is near for a remodel. Like the title says the location is great for business south of the city and there is plenty of businesses in the area. Breakfast is always a nice inclusion. They do a fine job it’s fresh and hot. When I’m in this area I will be staying at this hotel again. I would recommend this hotel and give it 3.9 stars due to the need of an upgradeMore</t>
   </si>
   <si>
-    <t>Ron L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r540722921-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -276,9 +324,6 @@
     <t>NOV 8th, 2017 Late night smoker on Non Smoking Floor. Not the fault of hotel. Smell was sickening. Filled hall and made it into rooms. Hotel responded appropriately, with deodorizer. Window would not open to clear air. The next morning. Smoker again was smelling up the floor. Staff could not have been nicer. But smoke continued with us to next destination. Not Tobacco.More</t>
   </si>
   <si>
-    <t>skaarj</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r531696124-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -306,7 +351,142 @@
     <t>I stayed in a very spacious nice big and clean room with a very comfortable bed. The staff was friendly and all smiles. However I could not sleep the first night due to the extremely loud highway next to the hotel. I grew up next to I-45 in Houston and am use to sleeping in loud conditions, but this was ridiculously loud. (-1) The rooms need some sort of sound dampening. The extremely slow wifi was useless and kept cutting out. I resorted to using my cell phones hot spot service. (-1) Otherwise this hotel would get a 5 out of 5.More</t>
   </si>
   <si>
-    <t>CameronCCC</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r506270897-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>506270897</t>
+  </si>
+  <si>
+    <t>07/27/2017</t>
+  </si>
+  <si>
+    <t>Nice place to stay</t>
+  </si>
+  <si>
+    <t>Nice hotel.  Clean rooms, friendly and helpful staff, good variety on breakfast. The beds were comfortable and the area we were in was nice and quite.  Easy access on and off the highway.  Close to many restaurants. Rates are very reasonable.  Would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>KenzieShore11, General Manager at Holiday Inn Express Hotel &amp; Suites, responded to this reviewResponded July 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2017</t>
+  </si>
+  <si>
+    <t>Nice hotel.  Clean rooms, friendly and helpful staff, good variety on breakfast. The beds were comfortable and the area we were in was nice and quite.  Easy access on and off the highway.  Close to many restaurants. Rates are very reasonable.  Would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r503482181-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>503482181</t>
+  </si>
+  <si>
+    <t>07/19/2017</t>
+  </si>
+  <si>
+    <t>Average but not an Average Price</t>
+  </si>
+  <si>
+    <t>The hotel itself was average.  You could tell it's age by some of the fixtures but was partially expecting that based on reviews.  We had purchased one of those "advanced member rates" which we tried to cancel but could not.  We were traveling through Waxahachie on our way home from a trip and were going to stay the night to deliver a child to a resident soccer camp in Waxahachie.  Instead we decided an extra hour to home wasn't unpleasant.  Tried to cancel but could not as they required a 24 hour advance call to cancel.  I get it, we were in the middle of the ocean at that time so we were unable to make that call.
+Long story short - we stopped, checked in, drove home, washed clothes and verified our packing for the kiddos camp.  Loaded the car and drove back down to Waxahachie, only an hour from our home, and stayed the night.  Arrived around 10pm.  It was quiet and the rooms were comfortable enough for a single night stay.  Remote batteries kept falling out as the backing was missing but it's a remote, I'm sure they have a heck of time keeping them working anyways.
+Next morning, got up, had their free breakfast - what you'd expect from a free hotel breakfast.  It was food, that's about it.  Check out was quick and easy - loved that.
+Overall the hotel was about average, nothing stood...The hotel itself was average.  You could tell it's age by some of the fixtures but was partially expecting that based on reviews.  We had purchased one of those "advanced member rates" which we tried to cancel but could not.  We were traveling through Waxahachie on our way home from a trip and were going to stay the night to deliver a child to a resident soccer camp in Waxahachie.  Instead we decided an extra hour to home wasn't unpleasant.  Tried to cancel but could not as they required a 24 hour advance call to cancel.  I get it, we were in the middle of the ocean at that time so we were unable to make that call.Long story short - we stopped, checked in, drove home, washed clothes and verified our packing for the kiddos camp.  Loaded the car and drove back down to Waxahachie, only an hour from our home, and stayed the night.  Arrived around 10pm.  It was quiet and the rooms were comfortable enough for a single night stay.  Remote batteries kept falling out as the backing was missing but it's a remote, I'm sure they have a heck of time keeping them working anyways.Next morning, got up, had their free breakfast - what you'd expect from a free hotel breakfast.  It was food, that's about it.  Check out was quick and easy - loved that.Overall the hotel was about average, nothing stood out as excellent or as awful, it was a place to stay in a pinch, however, the price was a bit high at over $100 a night on a Monday night.  This hotel does not warrant $100 a night or better in my opinion.MoreShow less</t>
+  </si>
+  <si>
+    <t>KenzieShore11, General Manager at Holiday Inn Express Hotel &amp; Suites, responded to this reviewResponded July 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2017</t>
+  </si>
+  <si>
+    <t>The hotel itself was average.  You could tell it's age by some of the fixtures but was partially expecting that based on reviews.  We had purchased one of those "advanced member rates" which we tried to cancel but could not.  We were traveling through Waxahachie on our way home from a trip and were going to stay the night to deliver a child to a resident soccer camp in Waxahachie.  Instead we decided an extra hour to home wasn't unpleasant.  Tried to cancel but could not as they required a 24 hour advance call to cancel.  I get it, we were in the middle of the ocean at that time so we were unable to make that call.
+Long story short - we stopped, checked in, drove home, washed clothes and verified our packing for the kiddos camp.  Loaded the car and drove back down to Waxahachie, only an hour from our home, and stayed the night.  Arrived around 10pm.  It was quiet and the rooms were comfortable enough for a single night stay.  Remote batteries kept falling out as the backing was missing but it's a remote, I'm sure they have a heck of time keeping them working anyways.
+Next morning, got up, had their free breakfast - what you'd expect from a free hotel breakfast.  It was food, that's about it.  Check out was quick and easy - loved that.
+Overall the hotel was about average, nothing stood...The hotel itself was average.  You could tell it's age by some of the fixtures but was partially expecting that based on reviews.  We had purchased one of those "advanced member rates" which we tried to cancel but could not.  We were traveling through Waxahachie on our way home from a trip and were going to stay the night to deliver a child to a resident soccer camp in Waxahachie.  Instead we decided an extra hour to home wasn't unpleasant.  Tried to cancel but could not as they required a 24 hour advance call to cancel.  I get it, we were in the middle of the ocean at that time so we were unable to make that call.Long story short - we stopped, checked in, drove home, washed clothes and verified our packing for the kiddos camp.  Loaded the car and drove back down to Waxahachie, only an hour from our home, and stayed the night.  Arrived around 10pm.  It was quiet and the rooms were comfortable enough for a single night stay.  Remote batteries kept falling out as the backing was missing but it's a remote, I'm sure they have a heck of time keeping them working anyways.Next morning, got up, had their free breakfast - what you'd expect from a free hotel breakfast.  It was food, that's about it.  Check out was quick and easy - loved that.Overall the hotel was about average, nothing stood out as excellent or as awful, it was a place to stay in a pinch, however, the price was a bit high at over $100 a night on a Monday night.  This hotel does not warrant $100 a night or better in my opinion.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r502333652-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>502333652</t>
+  </si>
+  <si>
+    <t>07/15/2017</t>
+  </si>
+  <si>
+    <t>Amazing Staff and Rooms!</t>
+  </si>
+  <si>
+    <t>I love nothing more than being treated like family! This place does that! A warm welcome and clean rooms are what makes a hotel. This hotel's location is spot on as well. Close to many restaurants and a Target. I highly recommend this place to those traveling!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>KenzieShore11, General Manager at Holiday Inn Express Hotel &amp; Suites, responded to this reviewResponded July 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2017</t>
+  </si>
+  <si>
+    <t>I love nothing more than being treated like family! This place does that! A warm welcome and clean rooms are what makes a hotel. This hotel's location is spot on as well. Close to many restaurants and a Target. I highly recommend this place to those traveling!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r501970376-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>501970376</t>
+  </si>
+  <si>
+    <t>07/14/2017</t>
+  </si>
+  <si>
+    <t>Traveling softball kids needed a rest</t>
+  </si>
+  <si>
+    <t>The property is very well managed.  The front desk team made you feel welcome and appreciated.  Our room was very clean and the bed with the super fluffy pillows was great for a restful night. I slept better here than in my own home (I've got to find those pillows!).Breakfast was really delicious and the staff kept everything well stocked and was continuously cleaning.  Although located near a busy highway - I must say that the hotel was very quiet and peaceful.  Well done Holiday Inn Express Waxahachie!MoreShow less</t>
+  </si>
+  <si>
+    <t>KenzieShore11, General Manager at Holiday Inn Express Hotel &amp; Suites, responded to this reviewResponded July 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 15, 2017</t>
+  </si>
+  <si>
+    <t>The property is very well managed.  The front desk team made you feel welcome and appreciated.  Our room was very clean and the bed with the super fluffy pillows was great for a restful night. I slept better here than in my own home (I've got to find those pillows!).Breakfast was really delicious and the staff kept everything well stocked and was continuously cleaning.  Although located near a busy highway - I must say that the hotel was very quiet and peaceful.  Well done Holiday Inn Express Waxahachie!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r495713160-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>495713160</t>
+  </si>
+  <si>
+    <t>06/24/2017</t>
+  </si>
+  <si>
+    <t>Customers come last</t>
+  </si>
+  <si>
+    <t>Booked a room for Friday night because we had a softball tournament scheduled for Saturday. Weather forecast didn't look promising for softball so I tried to cancel room only to be told I could cancel but I would still be charged full night rate. I explained the possibility tournament being cancelled because of rain but the hotel didn't care. Drove up Friday night and as predicted, rain moved in and tournament was cancelled. Holiday Inn is more concerned with the all mighty dollar than trying to work with customers because of unforeseen circumstances. We have stayed at this hotel before for softball but never again. I'm sure they lost several softball team customers as well. I have no problem with paying a cancellation fee but this place would not work with us at all. I'll keep my business with Hilton for all future travelsMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites, responded to this reviewResponded July 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 9, 2017</t>
+  </si>
+  <si>
+    <t>Booked a room for Friday night because we had a softball tournament scheduled for Saturday. Weather forecast didn't look promising for softball so I tried to cancel room only to be told I could cancel but I would still be charged full night rate. I explained the possibility tournament being cancelled because of rain but the hotel didn't care. Drove up Friday night and as predicted, rain moved in and tournament was cancelled. Holiday Inn is more concerned with the all mighty dollar than trying to work with customers because of unforeseen circumstances. We have stayed at this hotel before for softball but never again. I'm sure they lost several softball team customers as well. I have no problem with paying a cancellation fee but this place would not work with us at all. I'll keep my business with Hilton for all future travelsMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r491907282-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
@@ -324,9 +504,6 @@
     <t>The member "advance purchase" rate is non-refundable! It does not say non-refundable except in very fine print when you book...had a business trip scheduled and selected this rate when booking. I was not able to make the trip and called to cancel the reservation. I was told it was non-refundable and the charge had already hit my credit card. I talked to everyone trying to get a refund and everyone refused to help. I know it is a policy (not very well spelled out on-line), but I also know you have the chance to give great customer service and help a customer out. They then said to just dispute it with my credit card company. Yikes! I hope the $113 was worth it...you lost business for life! MoreShow less</t>
   </si>
   <si>
-    <t>June 2017</t>
-  </si>
-  <si>
     <t>KenzieShore11, General Manager at Holiday Inn Express Hotel &amp; Suites, responded to this reviewResponded June 16, 2017</t>
   </si>
   <si>
@@ -336,9 +513,6 @@
     <t>The member "advance purchase" rate is non-refundable! It does not say non-refundable except in very fine print when you book...had a business trip scheduled and selected this rate when booking. I was not able to make the trip and called to cancel the reservation. I was told it was non-refundable and the charge had already hit my credit card. I talked to everyone trying to get a refund and everyone refused to help. I know it is a policy (not very well spelled out on-line), but I also know you have the chance to give great customer service and help a customer out. They then said to just dispute it with my credit card company. Yikes! I hope the $113 was worth it...you lost business for life! More</t>
   </si>
   <si>
-    <t>Michelle T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r489317509-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -366,9 +540,6 @@
     <t>This hotel sprays their rooms heavily and you cannot open the windows. Even though notations were made in the reservation concerning the allergies to air sprays, they could not provide a room that had not been very heavily sprayed. For us this made the hotel a one star, but in fairness we rated it 3 since most people do not have this allergy. The hotel is fairly clean and the beds are comfortable with plenty of feather free pillows. The breakfast is typical Holiday Inn Express... good and free.More</t>
   </si>
   <si>
-    <t>Jacqueline M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r485150290-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -387,9 +558,6 @@
     <t>May 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>KenzieShore11, General Manager at Holiday Inn Express Hotel &amp; Suites, responded to this reviewResponded May 31, 2017</t>
   </si>
   <si>
@@ -399,9 +567,6 @@
     <t>Just a short weekend get away, we attended the festival on Saturday, and checked in that afternoon around 4pm. Checking in was quick and easy, the room was clean and comfortable. Just sat down on the bed for a moment next thing we knew it was almost 8pm. Only draw back was we were on the 2nd floor and someone on the floor let their kids run up and down the hall between 7am and 8.More</t>
   </si>
   <si>
-    <t>Craneninja</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r484794817-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -426,9 +591,6 @@
     <t>Incredibly clean and well appointed.  Highlights include: Keurig in room (with 4 pods), nice sized not-so-mini fridge, multiple pillow choices (labeled firm &amp; soft), free bottled water at the front desk.  The location is great with multiple food and shopping options within walking distance.  Even more shopping and food just across the freeway.  Great home base for quick access to most any activity in Waxahachie, especially the Scarborough Faire Renaissance Festival.More</t>
   </si>
   <si>
-    <t>JerryVirginia</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r471451291-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -456,9 +618,6 @@
     <t>Stayed in March 2017.  Very nice.  Spacious room and bathroom; restaurants (including a Chili's and Italian) are an easy 100-yard walk. Free breakfast very good.  Room quiet and nicely done.  You may need a GPS to find the place off I-35E North; that was a little challengingMore</t>
   </si>
   <si>
-    <t>Connie M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r465113953-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -486,9 +645,6 @@
     <t>I had business there for 4 nights and stayed at this hotel. The front desk was very nice. Three nights I was there a group of guys backed a truck up out side of my room window and grilled food. I was trying to get work done in my room and then watch some TV. They were talking loud. There was plenty of places they could have backed their truck where it would not bother anyone. The other thing that made me very upset is the entrance side door was not secure. You did not need a key to get in the side door. I am a woman that travels alone and did not feel secure. I did tell the front desk and he said he would tell the manager. I would not stay at this hotel again.More</t>
   </si>
   <si>
-    <t>One2travelUsa</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r463019196-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -510,9 +666,6 @@
     <t>Got in late so not much time to enjoy but it was a good stopping off post. Next door several restaurants.  Chick a fil Olive Garden etc. Busy there as people are using a cut off from Target. Good breakfast except pancake machine sometimes work,  TV had some issues with channels above a certain number and could not get them. Front desk could not get them either.More</t>
   </si>
   <si>
-    <t>Deron J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r455434242-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -540,9 +693,6 @@
     <t>There are three things I want in a hotel these days. I want quit, clean, and a good shower. I had a king suite and this is one of the quietest hotels i've ever stayed in.  It was pretty busy during my stay. The noise of the hallway stayed out of the room and the HVAC noise was muted. The water pressure in the shower was fantastic, and the room was very clean all three nights I was there.   The decor isn't exactly modern and the interior may be outdated, but the staff was great. The hotel is located near shopping and several restaurants and is also convenient to local highways. Solid hotel.More</t>
   </si>
   <si>
-    <t>Tom K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r450700558-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -567,9 +717,6 @@
     <t>Two of us stayed for 2 nights. Room was clean and comfortable. Checkin and Check out  was easy. Friendly staff and helpful with food options in the area. Free breakfast was nice, there was nothing fancy but we were able to find a few Gluten Free things to eat. We checked with the front desk about the Gluten Free at breakfast when we checked in and they were extremely helpful. They always had coffee, water and snacks available in the lobby. I would stay at this hotel again.More</t>
   </si>
   <si>
-    <t>Michelle S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r447792478-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -597,7 +744,124 @@
     <t>We stayed here for 2 nights while in town visiting family. Conveniently located near restaurants and shopping. Staff was friendly, and the breakfast buffet offered variety of hot and cold selections. No complaints.More</t>
   </si>
   <si>
-    <t>trackemdown</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r444850252-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>444850252</t>
+  </si>
+  <si>
+    <t>12/17/2016</t>
+  </si>
+  <si>
+    <t>Trip to Texas</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here on our trip from Michigan to Texas we had traveled about 800 miles the day we arrived at the hotel. It was a welcome site and we were greeted with a smile! the hotel and room was excellent. The breakfast we outstanding and started our next travel day out right. We highly recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>KenzieShore11, General Manager at Holiday Inn Express Hotel &amp; Suites, responded to this reviewResponded December 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 20, 2016</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here on our trip from Michigan to Texas we had traveled about 800 miles the day we arrived at the hotel. It was a welcome site and we were greeted with a smile! the hotel and room was excellent. The breakfast we outstanding and started our next travel day out right. We highly recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r440987540-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>440987540</t>
+  </si>
+  <si>
+    <t>11/29/2016</t>
+  </si>
+  <si>
+    <t>Nice hotel - Even Friendlier Staff!</t>
+  </si>
+  <si>
+    <t>I frequent Waxahachie for work a few times of year.  I have tried other hotels in the area and keep coming back to this HI express.  It is what you would expect from this chain - clean, comfortable rooms, decent pool, nice breakfast.  It is in a safe location and walking distance to a few restaurants and a shopping area.  The staff are what seem to set it apart for me though.  They don't know me when I walk in the door but they do a nice job to make me feel like I'm welcome and appreciated.  That goes a long way :)Good value for your money.  If you are in the area you can't go wrong!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>KenzieShore11, General Manager at Holiday Inn Express Hotel &amp; Suites, responded to this reviewResponded December 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 2, 2016</t>
+  </si>
+  <si>
+    <t>I frequent Waxahachie for work a few times of year.  I have tried other hotels in the area and keep coming back to this HI express.  It is what you would expect from this chain - clean, comfortable rooms, decent pool, nice breakfast.  It is in a safe location and walking distance to a few restaurants and a shopping area.  The staff are what seem to set it apart for me though.  They don't know me when I walk in the door but they do a nice job to make me feel like I'm welcome and appreciated.  That goes a long way :)Good value for your money.  If you are in the area you can't go wrong!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r436772443-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>436772443</t>
+  </si>
+  <si>
+    <t>11/13/2016</t>
+  </si>
+  <si>
+    <t>Pleasant experience</t>
+  </si>
+  <si>
+    <t>I always try to stay at HI express..This 1 was great. Cookies for you when you arrive :) . The a/c worked great. The staff was friendly. Right next door to Corinos restaurant, and very close to other places to eat. Not overpriced.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>KenzieShore11, General Manager at Holiday Inn Express Hotel &amp; Suites, responded to this reviewResponded November 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 14, 2016</t>
+  </si>
+  <si>
+    <t>I always try to stay at HI express..This 1 was great. Cookies for you when you arrive :) . The a/c worked great. The staff was friendly. Right next door to Corinos restaurant, and very close to other places to eat. Not overpriced.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r434689092-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>434689092</t>
+  </si>
+  <si>
+    <t>11/04/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decent Place </t>
+  </si>
+  <si>
+    <t>We stayed here 1 night on our way down to visit family! I had requested a ground floor room and it was ready and waiting! We were greeted by the staff who were very friendly and helpful. They even made cookies for us! The room was good and the tv and air conditioner worked well. The mini fridge was cold cold! They have a Keurig in the room for coffee and a microwave. The shower had great water pressure but, the floor got wet because water was leaking somewhere. The only real complaint about the room was the mattress, it was not very comfortable! The hotel is very close to several restaurants and shopping, gas stations! Not a bad place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>KenzieShore11, General Manager at Holiday Inn Express Hotel &amp; Suites, responded to this reviewResponded November 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 7, 2016</t>
+  </si>
+  <si>
+    <t>We stayed here 1 night on our way down to visit family! I had requested a ground floor room and it was ready and waiting! We were greeted by the staff who were very friendly and helpful. They even made cookies for us! The room was good and the tv and air conditioner worked well. The mini fridge was cold cold! They have a Keurig in the room for coffee and a microwave. The shower had great water pressure but, the floor got wet because water was leaking somewhere. The only real complaint about the room was the mattress, it was not very comfortable! The hotel is very close to several restaurants and shopping, gas stations! Not a bad place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r434118188-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>434118188</t>
+  </si>
+  <si>
+    <t>11/02/2016</t>
+  </si>
+  <si>
+    <t>Clean hotel with breakfast</t>
+  </si>
+  <si>
+    <t>We were on a road trip and stopped in for one night.  Very clean hotel, quiet, comfortable beds and breakfast.  Front desk people were helpful and so nice.  Close proximity to highway 287 and I35 and down the street from the Waxachie civic center.MoreShow less</t>
+  </si>
+  <si>
+    <t>We were on a road trip and stopped in for one night.  Very clean hotel, quiet, comfortable beds and breakfast.  Front desk people were helpful and so nice.  Close proximity to highway 287 and I35 and down the street from the Waxachie civic center.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r427537115-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
@@ -615,9 +879,6 @@
     <t>I found this hotel to be clean and friendly. The staff is helpful with anything you may need. The property is well maintained and the rooms are clean and modern. There's plenty of places to fine within a mile too.MoreShow less</t>
   </si>
   <si>
-    <t>October 2016</t>
-  </si>
-  <si>
     <t>KenzieShore11, General Manager at Holiday Inn Express Hotel &amp; Suites, responded to this reviewResponded October 14, 2016</t>
   </si>
   <si>
@@ -627,9 +888,6 @@
     <t>I found this hotel to be clean and friendly. The staff is helpful with anything you may need. The property is well maintained and the rooms are clean and modern. There's plenty of places to fine within a mile too.More</t>
   </si>
   <si>
-    <t>oklahomadave465</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r419096899-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -657,9 +915,6 @@
     <t>No complaints. Typical Holiday Inn Express. Hotel was clean &amp; well maintained. Staff was friendly.Breakfast was just OK (same as any other Holiday Inn Express). There were snacks available in the lobby which was a nice surprise. Goldfish, animal crackers, Chex mix.More</t>
   </si>
   <si>
-    <t>Amanda L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r410716835-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -682,9 +937,6 @@
   </si>
   <si>
     <t>We stay at holiday inn express wherever we go.  And this location meets our expectations. they offer a clean and quite overnight accommodations for a good price. Everything you need is right here for this sleepy area. It's just off of Hwy 45 - easy on and off access. More</t>
-  </si>
-  <si>
-    <t>txagt</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r382147020-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
@@ -722,9 +974,6 @@
 We stayed in room 209 but I...The room was very clean, smelled clean and was neat.  It was conveniently located and parking was plentiful and easy to get in and out.  What was not good was the super loud humming equipment noise that we heard the minute we got to our room.  If it had been constant we could have tolerated it, but every few seconds it would cycle on, then off, then back on again so it was a very loud any annoying sound.  And yep, it continued throughout the night.I called the front desk which I had to do with my cell phone because the phone in the room didn't work.  They said the hotel was full so they couldn't switch rooms, had no idea what the noise was - REALLY????  But they could bring up a box fan to drown out the noise, which they did.It helped - it did not eliminate the noise.  So between that and the super bright lights that shinned directly into our room from the parking lot across the street, we didn't sleep.  We could haven gotten a tan from the brightness.  No, the curtains didn't close so no way to avoid the super bright light.We didn't get any sleep, had to get up and visit with family super tired, then drive another 6 hours home - all with no sleep.  Made for a very miserable quick trip.We stayed in room 209 but I have a hard time you couldn't hear that noise in several rooms.  I have a hard time believing no one has ever reported the problem before.More</t>
   </si>
   <si>
-    <t>TCherry87</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r371834536-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -752,9 +1001,6 @@
     <t>This stay was also very short but the room was great, but this time the bed was more comfortable than the last. They have a great selection for their continental breakfast, but some of it could have been a little fresher. Otherwise it was a wonderful stay at a this hotel.More</t>
   </si>
   <si>
-    <t>cubfan44</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r361617224-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -779,9 +1025,6 @@
     <t>Stayed one night at this hotel while traveling to San Antonio.  The front desk clerk, Stormi was so charming, personable, and helpful.  She was delightful and was a great start to our stay.  The common areas of the hotel are clean and give a nice first impression.  Our room was a different story.  We had booked with member reward points and were given a two bedroom suite.  The room was dingy feeling.  There was not adequate lighting in the living space and the carpet was stained in both the living area and bedrooms.  There were pieces of food left on the chairs and both the sofa and chairs had stains as well.  The room just seemed out of date and tired.   It was not the rooms we expect when we stay at Holiday Inn Express.  We have stayed at the Hampton Inn in Waxahachie and it is a much nicer hotel.  While the staff was super, we were very disappointed in the room.  Not sure we would stay again.  More</t>
   </si>
   <si>
-    <t>DMH_Aberdeen</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r361313578-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -809,9 +1052,6 @@
     <t>This is a nice clean hotel with a very nice and helpful staff.  Rooms were good and the beds reasonably comfortable.   Some definite plusses were the afternoon snacks,  the breakfast, and most importantly fast wifi.Some negatives,  the bathtub was quite slick,  something to prevent slips is needed. The info card for internet said to call the front desk to borrow a connection cable but they did not have any.Be aware that if you are arriving from the north you essentially need to access the hotel via what looks like the Chili's parking lot.  The street is not well marked.More</t>
   </si>
   <si>
-    <t>ChubbaHill</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r350665421-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -839,9 +1079,6 @@
     <t>I have stayed here before and don't recall any real issues. This trip, the staff, especially the front desk staff, we're all outstanding. The hotel is very conveniently located to 287 and other major highways, close to shopping and restaurants and even a nearby movie theater if you have some down time.24/7 coffee in the lobby, fresh baked cookies and an ok breakfast are pluses too.My issue this trip is all about the housekeeping. The public areas were all clean and fresh. My room was ok, not great except for the bathroom. LE hairs in the tub, on the floor and in a corner near the tub. The ones on the floor look like they have been there a while. There was a broken ground prong from a plug sticking out of the outlet under the hairdryer and one day during my stay they didn't make up my room at all.I'd give them a higher score, but housekeeping is too key to a hotels main purpose to be taken lightly. I will try them again but my next visit I will not be as understanding of cleaning and safety fails.More</t>
   </si>
   <si>
-    <t>Wayne P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r333030714-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -869,9 +1106,6 @@
     <t>During a recent business trip to Waxahachie (South of Dallas), we stayed 7 nights.  The Holiday Inn is located close to a variety of shopping and restaurants. Many are within walking distance.  The room was clean and out of the 15 or so customers there for our event, I did not hear anyone complain.My bed was a little on the firm side for my preference.More</t>
   </si>
   <si>
-    <t>D P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r331214934-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -899,7 +1133,130 @@
     <t>Really centrally located to food, shopping.  Nice for the money and clean rooms - good customer service - nice chain sort of motel but it's safe and they do allow some smoking rooms - if you smoke... nice front desk clerks - rooms are very clean and comfortable -More</t>
   </si>
   <si>
-    <t>Katrina K</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r324459747-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>324459747</t>
+  </si>
+  <si>
+    <t>11/04/2015</t>
+  </si>
+  <si>
+    <t>NICE HOTEL, WELL MANAGED</t>
+  </si>
+  <si>
+    <t>I stayed there for 3 nights, and was pleased with the room, which was clean and spacious. The internet worked well and the personal was attentive and professional, so the rate of $79.99/night was a good value. MoreShow less</t>
+  </si>
+  <si>
+    <t>KenzieShore11, General Manager at Holiday Inn Express Hotel &amp; Suites, responded to this reviewResponded November 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 6, 2015</t>
+  </si>
+  <si>
+    <t>I stayed there for 3 nights, and was pleased with the room, which was clean and spacious. The internet worked well and the personal was attentive and professional, so the rate of $79.99/night was a good value. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r323458121-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>323458121</t>
+  </si>
+  <si>
+    <t>10/31/2015</t>
+  </si>
+  <si>
+    <t>Nice room</t>
+  </si>
+  <si>
+    <t>Clean, nice people, good price, close to everything I needed. Breakfast was good. Towels are large and nice. Bed was great. Also 12 pm checkout is a nice. Parking was plentiful. Will have no problem staying there again. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>KenzieShore11, General Manager at Holiday Inn Express Hotel &amp; Suites, responded to this reviewResponded November 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 2, 2015</t>
+  </si>
+  <si>
+    <t>Clean, nice people, good price, close to everything I needed. Breakfast was good. Towels are large and nice. Bed was great. Also 12 pm checkout is a nice. Parking was plentiful. Will have no problem staying there again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r320898304-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>320898304</t>
+  </si>
+  <si>
+    <t>10/22/2015</t>
+  </si>
+  <si>
+    <t>Nice hotel...would recommend it</t>
+  </si>
+  <si>
+    <t>Excellent staff.  Friendly and very helpful.  Had issues with room rate.  They took care of it right away and to my satisfaction.  Nice clean basic room.  Bathroom was very clean and kept that way.  The only issue was the food.  There was plenty and a good selection.  By the time I sat down, the "hot" food was lukewarm and cold by the time I finished eating.  Actually, the only "hot" food was the toast.  Hotter to begin with would be good.  All in all, a nice hotel that I would use again and recommend to others.  Thanks for your hospitality.MoreShow less</t>
+  </si>
+  <si>
+    <t>KenzieShore11, General Manager at Holiday Inn Express Hotel &amp; Suites, responded to this reviewResponded October 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 23, 2015</t>
+  </si>
+  <si>
+    <t>Excellent staff.  Friendly and very helpful.  Had issues with room rate.  They took care of it right away and to my satisfaction.  Nice clean basic room.  Bathroom was very clean and kept that way.  The only issue was the food.  There was plenty and a good selection.  By the time I sat down, the "hot" food was lukewarm and cold by the time I finished eating.  Actually, the only "hot" food was the toast.  Hotter to begin with would be good.  All in all, a nice hotel that I would use again and recommend to others.  Thanks for your hospitality.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r318401104-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>318401104</t>
+  </si>
+  <si>
+    <t>10/13/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The stay was great. </t>
+  </si>
+  <si>
+    <t>I called in late to see if they had any rooms available, to my surprise they did. I wanted to get away for the weekend with a friend and stopped at this location, away from the city. I enjoyed my stay at the hotel. The room was clean. I would recommend this hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>KenzieShore11, General Manager at Holiday Inn Express Hotel &amp; Suites, responded to this reviewResponded October 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 14, 2015</t>
+  </si>
+  <si>
+    <t>I called in late to see if they had any rooms available, to my surprise they did. I wanted to get away for the weekend with a friend and stopped at this location, away from the city. I enjoyed my stay at the hotel. The room was clean. I would recommend this hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r307115517-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>307115517</t>
+  </si>
+  <si>
+    <t>09/04/2015</t>
+  </si>
+  <si>
+    <t>Clean and friendly</t>
+  </si>
+  <si>
+    <t>I would have offered one additional star but the hotel is noisy. Noisy as in footsteps from adjacent and rooms above and hallways. Floors sound like the building is wood construction, not concrete so the sound levels are greater. Staff are very friendly, hotel is clean, plenty of parking, a nice breakfast in the morning...it's just noisy.I would return but would also try a room in a different part of the building, maybe the noise is not as much an issue in other areas.MoreShow less</t>
+  </si>
+  <si>
+    <t>KenzieShore11, General Manager at Holiday Inn Express Hotel &amp; Suites, responded to this reviewResponded September 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 11, 2015</t>
+  </si>
+  <si>
+    <t>I would have offered one additional star but the hotel is noisy. Noisy as in footsteps from adjacent and rooms above and hallways. Floors sound like the building is wood construction, not concrete so the sound levels are greater. Staff are very friendly, hotel is clean, plenty of parking, a nice breakfast in the morning...it's just noisy.I would return but would also try a room in a different part of the building, maybe the noise is not as much an issue in other areas.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r305344603-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
@@ -920,18 +1277,9 @@
     <t>August 2015</t>
   </si>
   <si>
-    <t>KenzieShore11, General Manager at Holiday Inn Express Hotel &amp; Suites, responded to this reviewResponded September 11, 2015</t>
-  </si>
-  <si>
-    <t>Responded September 11, 2015</t>
-  </si>
-  <si>
     <t>Our l shaped room had two queen beds, each in a different section of the room. The room size was nice and it was very clean. The hotel staff was extremely courteous and helpful. Breakfast was the usual fare but the coffee was started early and there was no problem using the breakfast room before it opened.Parking was plentiful and the hotel had a good location close to restaurants and stores.More</t>
   </si>
   <si>
-    <t>Jan W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r305141020-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -959,9 +1307,6 @@
     <t>The staff was helpful, but not overly friendly. The hotel appeared clean and was nicely decorated with a homey touch. And, it was conveniently located near a number of restaurants and shopping.The rooms were clean, cozy, secure and quiet. The beds were soft and very comfortable too. And, the complimentary continental breakfast was pretty decent. It had a variety of items for any time constraint or preference.More</t>
   </si>
   <si>
-    <t>Felicia C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r291585140-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -989,9 +1334,6 @@
     <t>Great location! Close to the softballs fields and restaurants, which is important to us. Great staff!Only compliant 2nd floor is a non-smoking floor but you can smell the smoking odor from the elavator. More</t>
   </si>
   <si>
-    <t>Dawnelle L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r290156148-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -1016,9 +1358,6 @@
     <t>This hotel is conveniently located right off the main highway with access to lots of restaurants and shopping.  The desk clerks are extremely friendly and helpful.  The room was quiet with everything you need.More</t>
   </si>
   <si>
-    <t>DAC61</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r286978324-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -1037,9 +1376,6 @@
     <t>We stayed here on June 26th and 27th. We booked 3 rooms for a family event that was in the area. They allowed us to check in !!!early and check out late when we left. The staff was very friendly and helped us with dining options. I would highly recommend this hotel. Rooms were clean and beds and pillows very comfortable . Go and enjoy your stay !!More</t>
   </si>
   <si>
-    <t>Merle H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r284545096-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -1067,9 +1403,6 @@
     <t>2 star hotel with 5 star stay hotel room very comfortable check in was easy and fast with a very large smile. The 2 young ladies working were great helpful and make sure our stay was good. Wi-Fi was not very good in one room 3rd floor suite so moved us to a 2nd floor suite still was not good but only staying over night. Great place to stay. More</t>
   </si>
   <si>
-    <t>The_Duke7779</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r274838580-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -1088,9 +1421,6 @@
     <t>This is the 2nd time we have stayed in this hotel and still pleases with the experience.  The location is great, just off the highway with good choices for food nearby. Staff was very helpful everytime we needed something, even directions. We will be back!!More</t>
   </si>
   <si>
-    <t>KitCat14</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r267537819-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -1112,9 +1442,6 @@
     <t>My boyfriend and I were in town to go to Scarborough Faire and decided that after a full day of walking around, we'd get a hotel instead of driving back to Dallas the same day.  Check in was on Sunday.  I had requested an early check-in and even though they were COMPLETELY full the night before, was told when I called that morning that it would be set up.  When I got there, Krystal, also the manager on duty I noticed, greeted me with a smile and checked me in quickly.  I had used hotel points + a little cash and it was totally worth it.  Was upgraded to a larger suite (Room 217) that was very clean, neat, and incredibly spacious. The breakfast in the morning tasted good, although their pancake maker spits out small little pancakes, so I had to make 6 total for both of us.  The highway noise didn't bother either of us that night, although in the morning it seemed to be more noticeable, but even then, hardly at all.  All in all, it was a great choice and I'm so glad that we stayed here!  We will definitely be back!More</t>
   </si>
   <si>
-    <t>John B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r249440516-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -1136,9 +1463,6 @@
     <t>Overall a good choice - not over the top.  But clean, quiet and nice light breakfast choices.  Good coffee and not too close to the road so minimal road noise.  A fair number of construction workers stay there, so sometimes debris in hallway from their boots.  Friendly staff.More</t>
   </si>
   <si>
-    <t>Juan Carlos M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r249140430-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -1163,9 +1487,6 @@
     <t>I just got back from my stay at the Holiday Inn Express in Waxahachie. Upon arrival, the entire first floor and front area smelt after cigarette smoke which continued all stay long, mattress was well used and needs to be changed, TV remote without batteries and hair residua in the bathroom. As a platinum member of IHG Hotels I expected a bit more quality.More</t>
   </si>
   <si>
-    <t>Heather B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r240690648-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -1187,9 +1508,6 @@
     <t>We just got back from our stay at the Holiday Inn Express in Waxahachie. Upon arrival, we were advised we received a free upgrade on our room. It was so spacious, clean, everything you would need for a stay. Customer service was excellent during the entire stay as well. I would highly recommend this hotel and intend on staying there when we visit again.More</t>
   </si>
   <si>
-    <t>SuZi520</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r239586897-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -1211,9 +1529,6 @@
     <t>We have stayed here several times and have always had a great stay.  It is clean and quiet and the employees are very friendly.  It is a little hard to get to but go through the Target parking lot for a shortcut.  There are several restaurants within walking distance.  Breakfast is the typical Holiday Inn Express fare but is included in the room price.More</t>
   </si>
   <si>
-    <t>FourPackerBackers</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r214541548-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -1235,9 +1550,6 @@
     <t>Gal at the front desk was GREAT (Kristen, I believe)!  She was well informed of the area and was competent in giving us directions, as our GPS took us to the middle of nowhere. She was warm and welcoming upon arrival and greeted us with IHG reward member "gifts" (water and trail mix).  She took pride in the hotel.  We were also upgraded to a Corner King Suite which was HUGE! Unit had two loveseat sized couches, a chair, several side tables, a desk, a kitchenette, two TV's, a king size bed and a separate bathroom. Again it was HUGE!   While it was not perfect (some stains, carpet wear, etc), it was definitely above average. My only real complaint is that the bathroom vanity was not made for a shorter person, it was difficult using the sink because it was quite deep and tall. Also, there was some sort of dirty tubing under the vanity that was visible and not very attractive to look at.  GREAT water pressure in the shower!  Breakfast was the standard Holiday Inn Express buffet, which has always been satisfactory.  Would recommend and stay here again if in the area, especially with the IHG reward member perks.More</t>
   </si>
   <si>
-    <t>Moe B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r210354246-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -1259,9 +1571,6 @@
     <t>We had tried to check in to the Holiday Inn Express that is a bit further North, but they were booked (sorry can't remember the name of the town, we were very tired from driving) the lady at the front desk was super great! She called the Wxahachie location for us and got us a room for the night, she also let us us the free WiFi to get directions printed off and allowed us to use the restroom. Our Tom Tom did not find the Waxahachie location and so wie called the hotel, the guy was GREAT, don't know his name, but his sister works there too. He guided us in with good directions and was very patient with me when I was stressed out and tired. The only issue was had was with getting the computer to work/print in the business center. They front desk clerk tried to help but could not get it working either. So he went behind the counter and printed out directions for us. The room was VERY nice, clean and the bed was wonderful, felt like it had a padded mattress cover on it. We slept very well. Shower was nice and hot with a great spray to it. Breakfast was good, hot and fresh. We stayed June 2 and then on our way back home we stayed again on June 13. Both times it was great! We did not have time to...We had tried to check in to the Holiday Inn Express that is a bit further North, but they were booked (sorry can't remember the name of the town, we were very tired from driving) the lady at the front desk was super great! She called the Wxahachie location for us and got us a room for the night, she also let us us the free WiFi to get directions printed off and allowed us to use the restroom. Our Tom Tom did not find the Waxahachie location and so wie called the hotel, the guy was GREAT, don't know his name, but his sister works there too. He guided us in with good directions and was very patient with me when I was stressed out and tired. The only issue was had was with getting the computer to work/print in the business center. They front desk clerk tried to help but could not get it working either. So he went behind the counter and printed out directions for us. The room was VERY nice, clean and the bed was wonderful, felt like it had a padded mattress cover on it. We slept very well. Shower was nice and hot with a great spray to it. Breakfast was good, hot and fresh. We stayed June 2 and then on our way back home we stayed again on June 13. Both times it was great! We did not have time to use the pool, but it was right outside our window and it looked clean. The June 13 visit a very nice girl checked us in.More</t>
   </si>
   <si>
-    <t>CozumelCris</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r210205260-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -1280,7 +1589,220 @@
     <t>Stayed at the Holiday Inn Express for 2 nights (Monday, Tuesday June 9 &amp; 10) while I attend a training school in Waxahachie.I arrived and check-in was a breeze and went to my room on the second floor. My room was nice and I had a view of the pool. As I unpacked, I remembered I had forgotten to bring shampoo. Luckily, the hotel had those in the bathroom along with conditioner, lotion &amp; even shower gel. I must say that I found the bed and pillows were excellent and I had no problems getting comfortable and relaxing. The nearby restaurants are within walking distance and the Target located behind the hotel is there if you need anything. I had brought water bottles and drinks from home and used the refrigerator located in the room. The water pressure was really good and had no issue running out of hot water. The only thing I had an issue with was the elevator, there is only 1 and it can be a slow wait. Check out was as easy as the check-in :)Overall, I would return to this hotel and stay there.More</t>
   </si>
   <si>
-    <t>TwotimesMommy</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r199803123-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>199803123</t>
+  </si>
+  <si>
+    <t>04/03/2014</t>
+  </si>
+  <si>
+    <t>Allright but not impressed</t>
+  </si>
+  <si>
+    <t>Overall this was a nice stay but there were several details that were off. My room had a great separate room with a desk and TV which made it very comfortable for the week. However I didn't sleep well in the bed and there were marks on several walls. It's close to the highway, dining and shopping. I did appreciate the multiple HBO channels offered.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites, responded to this reviewResponded April 19, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 19, 2014</t>
+  </si>
+  <si>
+    <t>Overall this was a nice stay but there were several details that were off. My room had a great separate room with a desk and TV which made it very comfortable for the week. However I didn't sleep well in the bed and there were marks on several walls. It's close to the highway, dining and shopping. I did appreciate the multiple HBO channels offered.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r183195233-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>183195233</t>
+  </si>
+  <si>
+    <t>11/01/2013</t>
+  </si>
+  <si>
+    <t>So So</t>
+  </si>
+  <si>
+    <t>Stayed at this location as we did not want to stay in Dallas overnight.  The good----Location was fantastic.  No problems what so ever finding the motel. Room was clean.the not so good------Very uncomfortable bed (many have commented on this and it is true).  Scratchy sheets (the quality wasn't there, maybe our sheet were just old and threadbare.  Breakfast was a little iffy.  I normally enjoy the cinnamon roll but I took one bite and threw the rest away. I am not a fan of crunch/ dried out cinnamon rolls. I tried to print something on the printer in the business room, printer was off line.  I noticed that there were 14 documents pending so it wasn't a new issue.  Went to the front desk to ask about it and was told they didn't know how to fix it.I might consider staying her again, but chances are not.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites, responded to this reviewResponded November 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 18, 2013</t>
+  </si>
+  <si>
+    <t>Stayed at this location as we did not want to stay in Dallas overnight.  The good----Location was fantastic.  No problems what so ever finding the motel. Room was clean.the not so good------Very uncomfortable bed (many have commented on this and it is true).  Scratchy sheets (the quality wasn't there, maybe our sheet were just old and threadbare.  Breakfast was a little iffy.  I normally enjoy the cinnamon roll but I took one bite and threw the rest away. I am not a fan of crunch/ dried out cinnamon rolls. I tried to print something on the printer in the business room, printer was off line.  I noticed that there were 14 documents pending so it wasn't a new issue.  Went to the front desk to ask about it and was told they didn't know how to fix it.I might consider staying her again, but chances are not.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r181194108-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>181194108</t>
+  </si>
+  <si>
+    <t>10/15/2013</t>
+  </si>
+  <si>
+    <t>Nice hotel except for the AC unit</t>
+  </si>
+  <si>
+    <t>Very nice hotel. Love that there is a Target behind it and Johnny Carinos beside it! Did not want to stay in Dallas so this was a great location for us. We stay at many HI Express on vacation.  This one is nice but the air conditioner unit made me miserable during the night.  It is loud and blew onto the bed .I had read this on another review but did not think we would have a problem.  I was wrong.  Mattressed were not up to normal HI Express quality.  Not a good nights rest!</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r158577082-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>158577082</t>
+  </si>
+  <si>
+    <t>04/23/2013</t>
+  </si>
+  <si>
+    <t>The bed was terrible!  The hotel is rather run down.</t>
+  </si>
+  <si>
+    <t>Over the past eight years or so, my wife and I have stayed at many of the Waxahachie hotels while attending the Scarbrough Ren Festival.  This year we decided to try the Holiday Inn Express because of the nearby restaurants.  That convenience is all this hotel has going for it unfortunately.  
+This place is either aging and definitely showing its age or very high mileage and in need of a bit of refurbishment or both.  We booked our room online (king bed with refrigerator and microwave).  We never use the microwave but do use the 'fridge.  When we entered the room guess what?  No refrigerator... only a hole in a cabinet where a refrigerator used to be.  My wife called the front desk and was told there was nothing that could be done that night (the hotel was completely booked) but as we were staying for two nights, they could get us a refrigerator the next day.  That suggest to me that they may be moving at least one refrigerator from room-to-room rather than equipping each room as it should be equipped.
+The bathroom was rather dingy.  The steel door frame was starting to rust in the corners.  It's nothing that a quick coat of paint couldn't hide but the fact that it's been allowed to get as far as it has tell me that management/ownership isn't examining the rooms often (of at all).  
+The room furniture looked like it...Over the past eight years or so, my wife and I have stayed at many of the Waxahachie hotels while attending the Scarbrough Ren Festival.  This year we decided to try the Holiday Inn Express because of the nearby restaurants.  That convenience is all this hotel has going for it unfortunately.  This place is either aging and definitely showing its age or very high mileage and in need of a bit of refurbishment or both.  We booked our room online (king bed with refrigerator and microwave).  We never use the microwave but do use the 'fridge.  When we entered the room guess what?  No refrigerator... only a hole in a cabinet where a refrigerator used to be.  My wife called the front desk and was told there was nothing that could be done that night (the hotel was completely booked) but as we were staying for two nights, they could get us a refrigerator the next day.  That suggest to me that they may be moving at least one refrigerator from room-to-room rather than equipping each room as it should be equipped.The bathroom was rather dingy.  The steel door frame was starting to rust in the corners.  It's nothing that a quick coat of paint couldn't hide but the fact that it's been allowed to get as far as it has tell me that management/ownership isn't examining the rooms often (of at all).  The room furniture looked like it came from a garage sale.  The real experience killer was the bed.  The mattress was so hard as to be almost impossible to sleep on.  I recall thinking that it was rather like sleeping on the ground with only a couple of blankets underneath for padding.  My back was sore from the experience.  There are a few other issues that I'll not go into here in the interest of trying to keep this as brief as possible.  The bottom line is this:  In our experience, all of the hotels in Waxahachie seem to get a lot of traffic but this one is, by far, a lot more tired than the others we've stayed at.  We won't stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites, responded to this reviewResponded May 10, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 10, 2013</t>
+  </si>
+  <si>
+    <t>Over the past eight years or so, my wife and I have stayed at many of the Waxahachie hotels while attending the Scarbrough Ren Festival.  This year we decided to try the Holiday Inn Express because of the nearby restaurants.  That convenience is all this hotel has going for it unfortunately.  
+This place is either aging and definitely showing its age or very high mileage and in need of a bit of refurbishment or both.  We booked our room online (king bed with refrigerator and microwave).  We never use the microwave but do use the 'fridge.  When we entered the room guess what?  No refrigerator... only a hole in a cabinet where a refrigerator used to be.  My wife called the front desk and was told there was nothing that could be done that night (the hotel was completely booked) but as we were staying for two nights, they could get us a refrigerator the next day.  That suggest to me that they may be moving at least one refrigerator from room-to-room rather than equipping each room as it should be equipped.
+The bathroom was rather dingy.  The steel door frame was starting to rust in the corners.  It's nothing that a quick coat of paint couldn't hide but the fact that it's been allowed to get as far as it has tell me that management/ownership isn't examining the rooms often (of at all).  
+The room furniture looked like it...Over the past eight years or so, my wife and I have stayed at many of the Waxahachie hotels while attending the Scarbrough Ren Festival.  This year we decided to try the Holiday Inn Express because of the nearby restaurants.  That convenience is all this hotel has going for it unfortunately.  This place is either aging and definitely showing its age or very high mileage and in need of a bit of refurbishment or both.  We booked our room online (king bed with refrigerator and microwave).  We never use the microwave but do use the 'fridge.  When we entered the room guess what?  No refrigerator... only a hole in a cabinet where a refrigerator used to be.  My wife called the front desk and was told there was nothing that could be done that night (the hotel was completely booked) but as we were staying for two nights, they could get us a refrigerator the next day.  That suggest to me that they may be moving at least one refrigerator from room-to-room rather than equipping each room as it should be equipped.The bathroom was rather dingy.  The steel door frame was starting to rust in the corners.  It's nothing that a quick coat of paint couldn't hide but the fact that it's been allowed to get as far as it has tell me that management/ownership isn't examining the rooms often (of at all).  The room furniture looked like it came from a garage sale.  The real experience killer was the bed.  The mattress was so hard as to be almost impossible to sleep on.  I recall thinking that it was rather like sleeping on the ground with only a couple of blankets underneath for padding.  My back was sore from the experience.  There are a few other issues that I'll not go into here in the interest of trying to keep this as brief as possible.  The bottom line is this:  In our experience, all of the hotels in Waxahachie seem to get a lot of traffic but this one is, by far, a lot more tired than the others we've stayed at.  We won't stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r158235865-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>158235865</t>
+  </si>
+  <si>
+    <t>04/19/2013</t>
+  </si>
+  <si>
+    <t>Almost 200 nights a year in hotels, this is one of the best.</t>
+  </si>
+  <si>
+    <t>The staff, Kenzie was the best that I have experience in a long time. She was wonderful along with her staff. Kenzie assisted with making sure our days in the hotels were the best that one could offer in the form of first class service. Kenzie and her staff did not need to go out of the box to make us feel welcome and assisted us with getting familiar with the area due to the first time in town. Being a Platinum member with InterContinental Hotels Group and a Diamond member with the Hilton Hotel group, the service from Kenzie and staff is in my top 2 list of stays in the United States. My last night in the hotel, I got sick, the night auditor assisted me that made me feel better. The service at this hotel deserves a blue ribbon. First Class Service all the way.MoreShow less</t>
+  </si>
+  <si>
+    <t>The staff, Kenzie was the best that I have experience in a long time. She was wonderful along with her staff. Kenzie assisted with making sure our days in the hotels were the best that one could offer in the form of first class service. Kenzie and her staff did not need to go out of the box to make us feel welcome and assisted us with getting familiar with the area due to the first time in town. Being a Platinum member with InterContinental Hotels Group and a Diamond member with the Hilton Hotel group, the service from Kenzie and staff is in my top 2 list of stays in the United States. My last night in the hotel, I got sick, the night auditor assisted me that made me feel better. The service at this hotel deserves a blue ribbon. First Class Service all the way.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r156617428-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>156617428</t>
+  </si>
+  <si>
+    <t>04/04/2013</t>
+  </si>
+  <si>
+    <t>great place to stay</t>
+  </si>
+  <si>
+    <t>Stayed here while working in the area. Very nice hotel and fantastic staff. Located next to lots of stores and restaurants that travelers will find very handy and helpful. While the hotel did not have a actual gym, their is a Anytime fitness down the road that has a very good staff as well</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r154996828-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>154996828</t>
+  </si>
+  <si>
+    <t>03/18/2013</t>
+  </si>
+  <si>
+    <t>Safe&amp;Clean</t>
+  </si>
+  <si>
+    <t>We wanted to try out the Galaxy drive-in theater in Ennis,Tx during a road trip. After checking out a few places in Ennis to stay, we almost scrapped the idea because none of the overnight accommodations felt safe enough, the cringe factor pulling into a few places was disappointing and we almost decided to scrap the idea. We kept driving on I45 until we found this hotel. I was pleasantly surprised. It had all of the expected qualities of this chain. Modest pool, a few treadmills(good working order)decent free breakfast. Very comfortable beds and linens. What impressed me was 1. Very polite &amp;friendly staff. 2. CLEANEST hotel I have stayed in... ever. I'm not kidding. Even the public restroom in the lobby was immaculate. If you are traveling through the area, don't hesitate to stop. ( Side note: Drive-in theater was about 20 min ride from here, but well worth the extra travel time to stay somewhere clean and safe)MoreShow less</t>
+  </si>
+  <si>
+    <t>We wanted to try out the Galaxy drive-in theater in Ennis,Tx during a road trip. After checking out a few places in Ennis to stay, we almost scrapped the idea because none of the overnight accommodations felt safe enough, the cringe factor pulling into a few places was disappointing and we almost decided to scrap the idea. We kept driving on I45 until we found this hotel. I was pleasantly surprised. It had all of the expected qualities of this chain. Modest pool, a few treadmills(good working order)decent free breakfast. Very comfortable beds and linens. What impressed me was 1. Very polite &amp;friendly staff. 2. CLEANEST hotel I have stayed in... ever. I'm not kidding. Even the public restroom in the lobby was immaculate. If you are traveling through the area, don't hesitate to stop. ( Side note: Drive-in theater was about 20 min ride from here, but well worth the extra travel time to stay somewhere clean and safe)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r149528787-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>149528787</t>
+  </si>
+  <si>
+    <t>01/12/2013</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>After an 8 hour drive we were ready to relax.  This hotel was just what we ordered.  The bed was comfy and the room was spotless.  We made use of the refrigerator and used the microwave to pop corn.  After a few hours rest we walked next door to Carinos and enjoyed a delicious meal.You can't go wrong if you decide to stay here.  Breakfast had lots of choices and everything was fresh and tasty.</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r149126319-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>149126319</t>
+  </si>
+  <si>
+    <t>01/07/2013</t>
+  </si>
+  <si>
+    <t>A "5" does this one no justice... They are clearly EXCEPTIONAL!</t>
+  </si>
+  <si>
+    <t>I checked in late on January 5th and I had been sick for 5 days already and getting worse each day....The Night Auditor Lady was compassionate and offered me extra bottles of cold water to help me.  Very polite, and genuinely concerned for my condition.And the room was OUTSTANDING, even though I was too sick to enjoy my stay, the SUPER SOFT BED AND PILLOWS did help reduce my discomfort while trying to sleep...This will be a new addition to my travel plans.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r148983386-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>148983386</t>
+  </si>
+  <si>
+    <t>01/06/2013</t>
+  </si>
+  <si>
+    <t>Nice hotel- Horrible beds!!</t>
+  </si>
+  <si>
+    <t>The hotel was nice, but the room was a little out dated compared to most of the Holiday Inn Express's I've stayed at. The beds were the most uncomfortable beds I've ever slept in at a hotel. That is my only complaint. We had a 2 room suite nice size bathroom. They had a nice breakfast area and the staff was nice, but due to the bed I would not recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites, responded to this reviewResponded January 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 18, 2013</t>
+  </si>
+  <si>
+    <t>The hotel was nice, but the room was a little out dated compared to most of the Holiday Inn Express's I've stayed at. The beds were the most uncomfortable beds I've ever slept in at a hotel. That is my only complaint. We had a 2 room suite nice size bathroom. They had a nice breakfast area and the staff was nice, but due to the bed I would not recommend this hotel.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r142302614-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
@@ -1298,9 +1820,6 @@
     <t xml:space="preserve">We stayed here two nights while visiting family. When I first arrived, our room on the first floor had a dead cricket and a couple dead water bugs. Did not give me a good feeling.  We did not tell anyone just brushed to the side.  However, housekeeping did our room the next morning and they were gone and the room seemed very clean. The staff was super friendly and really were sweet to my girls. We had a great stay and the facility was very nice. Can't say enough about the staff-the night desk, the morning desk, breakfast staff and housekeeping. One of the friendliest places we have been. </t>
   </si>
   <si>
-    <t>ManUnited8989</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r135275436-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -1328,9 +1847,6 @@
     <t>I spent one night at the HIE in July.  Everyone at the hotel was very nice.  My room was exactly as expected.  It was clean and it had everything I needed.  I only used the free wifi for a little while, but it worked well.  Parking is also free.The hotel was a little hard to find.  If you use Google Maps, it will send you to the wrong location.  The hotel is in a very convenient location, with several places to eat nearby.I only had one problem with my stay.  My A/C unit was loud when it turned on.  It did have the option to leave the fan on all the time, and that really helped.  Even with the fan on, it was a little loud when the A/C kicked in.More</t>
   </si>
   <si>
-    <t>MonicafromMiami</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r134532806-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -1349,9 +1865,6 @@
     <t>June 2012</t>
   </si>
   <si>
-    <t>CurryRussell</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r131250821-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -1370,9 +1883,6 @@
     <t>August 2011</t>
   </si>
   <si>
-    <t>dldlcd</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r129386956-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -1397,9 +1907,6 @@
     <t>Good location and very clean. Just overpriced for their suite. It's a room that is a little bigger than a standard room but has a two foot divider on each side of the room separating the couch from the bed. No desk but a square table with a worn out business chair. Made computing uncomfortable.  Hence over priced. I've paid less for a better room at other hotels for fifty dollars cheaper. More</t>
   </si>
   <si>
-    <t>Scott M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r123614959-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -1421,9 +1928,6 @@
     <t>We stay in this hotel about 4 times a year while visiting family in the area. The staff is always very nice, they make a point of getting my parents in to a room that makes it easier for them to get around. I was upgraded once to a suite it was very nice and roomy. The breakfast buffet is always clean and well stocked, the staff is very attentive. This is not necessarily a tourist area for most people but a good place ro stay if you are visiting Waxahachie, TX. Easy access to the highways and plenty of chain restaurants near by. There is a nonce strip mall behind it that has a super Target.More</t>
   </si>
   <si>
-    <t>lisandbri</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r120584652-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -1442,9 +1946,6 @@
     <t>November 2011</t>
   </si>
   <si>
-    <t>travelbear77</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r117147886-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -1460,9 +1961,6 @@
     <t>This is about my fourth stay at a Holiday Inn Express in the past couple of months; this was another very nice place, very clean and quiet.  Very nice front desk staff.Also location is very good; right on 287, near 35--Target and many restaurants nearby; in the growing area of Waxahachie.</t>
   </si>
   <si>
-    <t>EdnaJune</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r114948464-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -1481,9 +1979,6 @@
     <t>June 2011</t>
   </si>
   <si>
-    <t>guvnerwl</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r88373639-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -1502,9 +1997,6 @@
     <t>November 2010</t>
   </si>
   <si>
-    <t>Reasonable02</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r86086240-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -1526,9 +2018,6 @@
     <t>I have stayed at this hotel minmum 12 times.  I can say that the management, the employee's of this establishment go beyond thier call of duty to help out a customer. I know this for a fact. I have stay here so many times that we are on first name bases almost. They treat you like they would want to be treated themselfs. The lady that puts out the breakfast each day knows i love bacon and when bacon is not served she will come and ask if would like to have some. Now tell me that is not friendly service. I can guarantee you that you will not get the service from another hotel in the area that i get. It is worth the stay and if you have a complaint, take it to the manager and she will defaintly make it right with you right then and there. Don't wait to address an issue till you leave, address it then if you have one and I HAVE NEVER HAD ONE.I would defaintly recommend this hotel to everyone looking for a good night sleep and a place to rest and stay while in need of a hotel.More</t>
   </si>
   <si>
-    <t>Jonathan F</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r81871251-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -1547,9 +2036,6 @@
     <t>September 2010</t>
   </si>
   <si>
-    <t>mhetrick0968</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r73675750-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -1565,9 +2051,6 @@
     <t>We live in Waxahachie and our air conditioner had gone out so we went to stay the night at a hotel thinking ok..we could swim and relax while we were waiting for it to get fixed. We were not notified of the pool being closed at time of checkin and did not find out til next morning when we decided to go for swim. Also there was blood spots on our sheets and when we told manager she was rude and didn't seem to care. There are many new hotels un Waxahachie and I would strongly suggest checking out your options before staying here.</t>
   </si>
   <si>
-    <t>mhartman1962</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r22416644-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -1586,9 +2069,6 @@
     <t>October 2008</t>
   </si>
   <si>
-    <t>greg2171</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r6801436-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -1605,6 +2085,39 @@
   </si>
   <si>
     <t>February 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r6705395-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>6705395</t>
+  </si>
+  <si>
+    <t>01/26/2007</t>
+  </si>
+  <si>
+    <t>Good stuff</t>
+  </si>
+  <si>
+    <t>Staff was very helpful. Room was clean. Nice complimentary breakfast with bacon, fruit, cereal, etc.Close to several chain restaurants and big box shopping. Just a few minutes from historical downtown Waxahachie.I thought it was a bit pricey for a small town. But, its worth it. Highly recommend.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d295503-r5032099-Holiday_Inn_Express_Hotel_Suites-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>5032099</t>
+  </si>
+  <si>
+    <t>05/02/2006</t>
+  </si>
+  <si>
+    <t>nice hotel</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel one night before attending the ren fest.  It was within 10 min of the fairgrounds, and a handy location right next to a good restaurant and Target.  There was an outdoor heated pool, small but nice.  The hotel looked and smelled clean.  The rooms were good, I like the bathroom upgrades like shelves for your toiletries.  Only complaint was that the sheets were not that high quality and kept coming off of the mattress edge.  The temperature stayed comfortable and it was not noisy despite their being tons of teenagers in for the festival.  Our friends who had a room overlooking the pool heardsome racket until 10 pm, then the pool was closed and noise policies were strictly enforced.  They seemed to strictly enforce smoking policies as well.The breakfast was nice...there was a good selection of sliced fresh fruit, sausage gravy/biscuits, bacon, along with the standard pastries, cereal, toast and yogurt.  Workers were friendly.  We got the best deal by calling the hotel directly...cheaper than the internet rates and no cancellation penalties like the internet rates had.It may be a bit more expensive than some other hotels in it's "class", but also very nice for its category.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel one night before attending the ren fest.  It was within 10 min of the fairgrounds, and a handy location right next to a good restaurant and Target.  There was an outdoor heated pool, small but nice.  The hotel looked and smelled clean.  The rooms were good, I like the bathroom upgrades like shelves for your toiletries.  Only complaint was that the sheets were not that high quality and kept coming off of the mattress edge.  The temperature stayed comfortable and it was not noisy despite their being tons of teenagers in for the festival.  Our friends who had a room overlooking the pool heardsome racket until 10 pm, then the pool was closed and noise policies were strictly enforced.  They seemed to strictly enforce smoking policies as well.The breakfast was nice...there was a good selection of sliced fresh fruit, sausage gravy/biscuits, bacon, along with the standard pastries, cereal, toast and yogurt.  Workers were friendly.  We got the best deal by calling the hotel directly...cheaper than the internet rates and no cancellation penalties like the internet rates had.It may be a bit more expensive than some other hotels in it's "class", but also very nice for its category.More</t>
   </si>
 </sst>
 </file>
@@ -2109,179 +2622,165 @@
       <c r="A2" t="n">
         <v>52099</v>
       </c>
-      <c r="B2" t="n">
-        <v>156139</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X2" t="s">
-        <v>55</v>
-      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>52099</v>
       </c>
-      <c r="B3" t="n">
-        <v>156140</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>58</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="O3" t="s">
         <v>59</v>
       </c>
-      <c r="J3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K3" t="s">
-        <v>61</v>
-      </c>
-      <c r="L3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4</v>
-      </c>
-      <c r="N3" t="s">
-        <v>63</v>
-      </c>
-      <c r="O3" t="s">
-        <v>53</v>
-      </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="n">
-        <v>4</v>
-      </c>
-      <c r="R3" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>5</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s"/>
-      <c r="X3" t="s"/>
+      <c r="W3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" t="s">
+        <v>61</v>
+      </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>52099</v>
       </c>
-      <c r="B4" t="n">
-        <v>156141</v>
-      </c>
-      <c r="C4" t="s">
-        <v>65</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
         <v>66</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>67</v>
-      </c>
-      <c r="J4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K4" t="s">
-        <v>69</v>
-      </c>
-      <c r="L4" t="s">
-        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="O4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2293,134 +2792,122 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="X4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="Y4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>52099</v>
       </c>
-      <c r="B5" t="n">
-        <v>62046</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
         <v>76</v>
       </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
-        <v>78</v>
-      </c>
-      <c r="J5" t="s">
-        <v>79</v>
-      </c>
-      <c r="K5" t="s">
-        <v>80</v>
-      </c>
-      <c r="L5" t="s">
-        <v>81</v>
-      </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="n">
-        <v>5</v>
-      </c>
-      <c r="R5" t="n">
-        <v>5</v>
-      </c>
-      <c r="S5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>4</v>
+      </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
-        <v>83</v>
-      </c>
-      <c r="X5" t="s">
-        <v>84</v>
-      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>52099</v>
       </c>
-      <c r="B6" t="n">
-        <v>156142</v>
-      </c>
-      <c r="C6" t="s">
-        <v>86</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="M6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
       <c r="R6" t="n">
         <v>4</v>
       </c>
@@ -2432,61 +2919,53 @@
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>93</v>
-      </c>
-      <c r="X6" t="s">
-        <v>94</v>
-      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>52099</v>
       </c>
-      <c r="B7" t="n">
-        <v>156143</v>
-      </c>
-      <c r="C7" t="s">
-        <v>96</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="J7" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="K7" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="O7" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2498,202 +2977,196 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="X7" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="Y7" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>52099</v>
       </c>
-      <c r="B8" t="n">
-        <v>5017</v>
-      </c>
-      <c r="C8" t="s">
-        <v>106</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="J8" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="K8" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="M8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="X8" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="Y8" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>52099</v>
       </c>
-      <c r="B9" t="n">
-        <v>44209</v>
-      </c>
-      <c r="C9" t="s">
-        <v>116</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="J9" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="K9" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="O9" t="s">
-        <v>123</v>
+        <v>59</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="X9" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="Y9" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>52099</v>
       </c>
-      <c r="B10" t="n">
-        <v>156144</v>
-      </c>
-      <c r="C10" t="s">
-        <v>127</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="J10" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="K10" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="L10" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="O10" t="s">
-        <v>123</v>
-      </c>
-      <c r="P10" t="s"/>
-      <c r="Q10" t="n">
-        <v>5</v>
-      </c>
-      <c r="R10" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
@@ -2703,333 +3176,315 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="X10" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="Y10" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>52099</v>
       </c>
-      <c r="B11" t="n">
-        <v>156145</v>
-      </c>
-      <c r="C11" t="s">
-        <v>136</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="J11" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="K11" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="L11" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="O11" t="s">
-        <v>123</v>
+        <v>59</v>
       </c>
       <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
       <c r="R11" t="s"/>
-      <c r="S11" t="n">
-        <v>5</v>
-      </c>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="X11" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="Y11" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>52099</v>
       </c>
-      <c r="B12" t="n">
-        <v>36575</v>
-      </c>
-      <c r="C12" t="s">
-        <v>146</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="J12" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="K12" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="L12" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="M12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="O12" t="s">
-        <v>152</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="X12" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="Y12" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>52099</v>
       </c>
-      <c r="B13" t="n">
-        <v>29434</v>
-      </c>
-      <c r="C13" t="s">
-        <v>156</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="J13" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="K13" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="L13" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="X13" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="Y13" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>52099</v>
       </c>
-      <c r="B14" t="n">
-        <v>156146</v>
-      </c>
-      <c r="C14" t="s">
-        <v>164</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="J14" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="K14" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="L14" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="O14" t="s">
-        <v>72</v>
+        <v>151</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>4</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="X14" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="Y14" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>52099</v>
       </c>
-      <c r="B15" t="n">
-        <v>63184</v>
-      </c>
-      <c r="C15" t="s">
-        <v>174</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="J15" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="K15" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="L15" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="M15" t="n">
-        <v>5</v>
-      </c>
-      <c r="N15" t="s"/>
-      <c r="O15" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>150</v>
+      </c>
+      <c r="O15" t="s">
+        <v>52</v>
+      </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
@@ -3040,125 +3495,123 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="X15" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="Y15" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>52099</v>
       </c>
-      <c r="B16" t="n">
-        <v>6394</v>
-      </c>
-      <c r="C16" t="s">
-        <v>183</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="J16" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="K16" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="L16" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="X16" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="Y16" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>52099</v>
       </c>
-      <c r="B17" t="n">
-        <v>156147</v>
-      </c>
-      <c r="C17" t="s">
-        <v>193</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="J17" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="K17" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="L17" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="O17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3170,382 +3623,378 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="X17" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="Y17" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>52099</v>
       </c>
-      <c r="B18" t="n">
-        <v>156148</v>
-      </c>
-      <c r="C18" t="s">
-        <v>203</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="J18" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="K18" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="L18" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="O18" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="P18" t="s"/>
-      <c r="Q18" t="s"/>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
       <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="X18" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="Y18" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>52099</v>
       </c>
-      <c r="B19" t="n">
-        <v>31273</v>
-      </c>
-      <c r="C19" t="s">
-        <v>213</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="J19" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="K19" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="L19" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
-      <c r="N19" t="s"/>
-      <c r="O19" t="s"/>
+      <c r="N19" t="s">
+        <v>194</v>
+      </c>
+      <c r="O19" t="s">
+        <v>68</v>
+      </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
-      <c r="S19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
       <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="X19" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="Y19" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>52099</v>
       </c>
-      <c r="B20" t="n">
-        <v>156149</v>
-      </c>
-      <c r="C20" t="s">
-        <v>222</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="J20" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="K20" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="L20" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>194</v>
+      </c>
+      <c r="O20" t="s">
+        <v>203</v>
+      </c>
+      <c r="P20" t="n">
         <v>3</v>
       </c>
-      <c r="N20" t="s">
-        <v>228</v>
-      </c>
-      <c r="O20" t="s">
-        <v>53</v>
-      </c>
-      <c r="P20" t="s"/>
-      <c r="Q20" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="X20" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="Y20" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>52099</v>
       </c>
-      <c r="B21" t="n">
-        <v>156150</v>
-      </c>
-      <c r="C21" t="s">
-        <v>232</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="J21" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="K21" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="L21" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="O21" t="s">
-        <v>123</v>
+        <v>59</v>
       </c>
       <c r="P21" t="s"/>
-      <c r="Q21" t="s"/>
-      <c r="R21" t="s"/>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="X21" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="Y21" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>52099</v>
       </c>
-      <c r="B22" t="n">
-        <v>156151</v>
-      </c>
-      <c r="C22" t="s">
-        <v>242</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="J22" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="K22" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="L22" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="M22" t="n">
-        <v>3</v>
-      </c>
-      <c r="N22" t="s"/>
-      <c r="O22" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>219</v>
+      </c>
+      <c r="O22" t="s">
+        <v>52</v>
+      </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="X22" t="s">
-        <v>249</v>
+        <v>221</v>
       </c>
       <c r="Y22" t="s">
-        <v>250</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>52099</v>
       </c>
-      <c r="B23" t="n">
-        <v>156152</v>
-      </c>
-      <c r="C23" t="s">
-        <v>251</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="J23" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="K23" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="L23" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
-      <c r="N23" t="s">
-        <v>257</v>
-      </c>
-      <c r="O23" t="s">
-        <v>53</v>
-      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
@@ -3556,208 +4005,190 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>258</v>
+        <v>228</v>
       </c>
       <c r="X23" t="s">
-        <v>259</v>
+        <v>229</v>
       </c>
       <c r="Y23" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>52099</v>
       </c>
-      <c r="B24" t="n">
-        <v>146523</v>
-      </c>
-      <c r="C24" t="s">
-        <v>261</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="J24" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="K24" t="s">
-        <v>265</v>
+        <v>234</v>
       </c>
       <c r="L24" t="s">
-        <v>266</v>
+        <v>235</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>267</v>
+        <v>236</v>
       </c>
       <c r="O24" t="s">
-        <v>152</v>
-      </c>
-      <c r="P24" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>3</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="X24" t="s">
-        <v>269</v>
+        <v>238</v>
       </c>
       <c r="Y24" t="s">
-        <v>270</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>52099</v>
       </c>
-      <c r="B25" t="n">
-        <v>12060</v>
-      </c>
-      <c r="C25" t="s">
-        <v>271</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>272</v>
+        <v>240</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="J25" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="K25" t="s">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="L25" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="M25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="O25" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R25" t="s"/>
-      <c r="S25" t="s"/>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="X25" t="s">
-        <v>279</v>
+        <v>246</v>
       </c>
       <c r="Y25" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>52099</v>
       </c>
-      <c r="B26" t="n">
-        <v>16125</v>
-      </c>
-      <c r="C26" t="s">
-        <v>281</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>282</v>
+        <v>248</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="J26" t="s">
-        <v>284</v>
+        <v>250</v>
       </c>
       <c r="K26" t="s">
-        <v>285</v>
+        <v>251</v>
       </c>
       <c r="L26" t="s">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="O26" t="s">
-        <v>72</v>
-      </c>
-      <c r="P26" t="s"/>
-      <c r="Q26" t="n">
-        <v>5</v>
-      </c>
-      <c r="R26" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
@@ -3767,333 +4198,307 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>288</v>
+        <v>254</v>
       </c>
       <c r="X26" t="s">
-        <v>289</v>
+        <v>255</v>
       </c>
       <c r="Y26" t="s">
-        <v>290</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>52099</v>
       </c>
-      <c r="B27" t="n">
-        <v>34720</v>
-      </c>
-      <c r="C27" t="s">
-        <v>291</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="J27" t="s">
-        <v>294</v>
+        <v>259</v>
       </c>
       <c r="K27" t="s">
-        <v>295</v>
+        <v>260</v>
       </c>
       <c r="L27" t="s">
-        <v>296</v>
+        <v>261</v>
       </c>
       <c r="M27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>297</v>
+        <v>262</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
-      </c>
-      <c r="P27" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>4</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
       <c r="R27" t="s"/>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>5</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>298</v>
+        <v>263</v>
       </c>
       <c r="X27" t="s">
-        <v>299</v>
+        <v>264</v>
       </c>
       <c r="Y27" t="s">
-        <v>300</v>
+        <v>265</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>52099</v>
       </c>
-      <c r="B28" t="n">
-        <v>2464</v>
-      </c>
-      <c r="C28" t="s">
-        <v>301</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>302</v>
+        <v>266</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>303</v>
+        <v>267</v>
       </c>
       <c r="J28" t="s">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="K28" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="L28" t="s">
-        <v>306</v>
+        <v>270</v>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>307</v>
+        <v>262</v>
       </c>
       <c r="O28" t="s">
-        <v>152</v>
-      </c>
-      <c r="P28" t="n">
-        <v>4</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
       <c r="R28" t="s"/>
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>4</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>308</v>
+        <v>271</v>
       </c>
       <c r="X28" t="s">
-        <v>309</v>
+        <v>272</v>
       </c>
       <c r="Y28" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>52099</v>
       </c>
-      <c r="B29" t="n">
-        <v>15053</v>
-      </c>
-      <c r="C29" t="s">
-        <v>311</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>312</v>
+        <v>274</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>313</v>
+        <v>275</v>
       </c>
       <c r="J29" t="s">
-        <v>314</v>
+        <v>276</v>
       </c>
       <c r="K29" t="s">
-        <v>315</v>
+        <v>277</v>
       </c>
       <c r="L29" t="s">
-        <v>316</v>
+        <v>278</v>
       </c>
       <c r="M29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>317</v>
+        <v>262</v>
       </c>
       <c r="O29" t="s">
-        <v>72</v>
-      </c>
-      <c r="P29" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
       <c r="Q29" t="s"/>
-      <c r="R29" t="s"/>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>318</v>
+        <v>271</v>
       </c>
       <c r="X29" t="s">
-        <v>319</v>
+        <v>272</v>
       </c>
       <c r="Y29" t="s">
-        <v>320</v>
+        <v>279</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>52099</v>
       </c>
-      <c r="B30" t="n">
-        <v>35673</v>
-      </c>
-      <c r="C30" t="s">
-        <v>321</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>322</v>
+        <v>280</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>323</v>
+        <v>281</v>
       </c>
       <c r="J30" t="s">
-        <v>324</v>
+        <v>282</v>
       </c>
       <c r="K30" t="s">
-        <v>325</v>
+        <v>283</v>
       </c>
       <c r="L30" t="s">
-        <v>326</v>
+        <v>284</v>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>317</v>
+        <v>253</v>
       </c>
       <c r="O30" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
-      <c r="R30" t="n">
-        <v>5</v>
-      </c>
-      <c r="S30" t="n">
-        <v>5</v>
-      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>5</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="X30" t="s">
-        <v>328</v>
+        <v>286</v>
       </c>
       <c r="Y30" t="s">
-        <v>329</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>52099</v>
       </c>
-      <c r="B31" t="n">
-        <v>156153</v>
-      </c>
-      <c r="C31" t="s">
-        <v>330</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>332</v>
+        <v>289</v>
       </c>
       <c r="J31" t="s">
-        <v>333</v>
+        <v>290</v>
       </c>
       <c r="K31" t="s">
-        <v>334</v>
+        <v>291</v>
       </c>
       <c r="L31" t="s">
-        <v>335</v>
+        <v>292</v>
       </c>
       <c r="M31" t="n">
-        <v>5</v>
-      </c>
-      <c r="N31" t="s"/>
-      <c r="O31" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>293</v>
+      </c>
+      <c r="O31" t="s">
+        <v>52</v>
+      </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
       <c r="R31" t="s"/>
@@ -4104,61 +4509,53 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>327</v>
+        <v>294</v>
       </c>
       <c r="X31" t="s">
-        <v>328</v>
+        <v>295</v>
       </c>
       <c r="Y31" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>52099</v>
       </c>
-      <c r="B32" t="n">
-        <v>156154</v>
-      </c>
-      <c r="C32" t="s">
-        <v>337</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>338</v>
+        <v>297</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>339</v>
+        <v>298</v>
       </c>
       <c r="J32" t="s">
-        <v>340</v>
+        <v>299</v>
       </c>
       <c r="K32" t="s">
-        <v>341</v>
+        <v>300</v>
       </c>
       <c r="L32" t="s">
-        <v>342</v>
+        <v>301</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
-      <c r="N32" t="s">
-        <v>343</v>
-      </c>
-      <c r="O32" t="s">
-        <v>53</v>
-      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
       <c r="R32" t="s"/>
@@ -4169,836 +4566,748 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
       <c r="X32" t="s">
-        <v>345</v>
+        <v>303</v>
       </c>
       <c r="Y32" t="s">
-        <v>346</v>
+        <v>304</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>52099</v>
       </c>
-      <c r="B33" t="n">
-        <v>156155</v>
-      </c>
-      <c r="C33" t="s">
-        <v>347</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>348</v>
+        <v>305</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>349</v>
+        <v>306</v>
       </c>
       <c r="J33" t="s">
-        <v>350</v>
+        <v>307</v>
       </c>
       <c r="K33" t="s">
-        <v>351</v>
+        <v>308</v>
       </c>
       <c r="L33" t="s">
-        <v>352</v>
+        <v>309</v>
       </c>
       <c r="M33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P33" t="s"/>
-      <c r="Q33" t="s"/>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
       <c r="R33" t="s"/>
       <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="s"/>
+      <c r="U33" t="n">
+        <v>3</v>
+      </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>344</v>
+        <v>311</v>
       </c>
       <c r="X33" t="s">
-        <v>345</v>
+        <v>312</v>
       </c>
       <c r="Y33" t="s">
-        <v>353</v>
+        <v>313</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>52099</v>
       </c>
-      <c r="B34" t="n">
-        <v>156156</v>
-      </c>
-      <c r="C34" t="s">
-        <v>354</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>355</v>
+        <v>314</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>356</v>
+        <v>315</v>
       </c>
       <c r="J34" t="s">
-        <v>357</v>
+        <v>316</v>
       </c>
       <c r="K34" t="s">
-        <v>358</v>
+        <v>317</v>
       </c>
       <c r="L34" t="s">
-        <v>359</v>
+        <v>318</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>360</v>
+        <v>319</v>
       </c>
       <c r="O34" t="s">
-        <v>123</v>
-      </c>
-      <c r="P34" t="n">
-        <v>5</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
       <c r="R34" t="s"/>
       <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="n">
-        <v>5</v>
-      </c>
+      <c r="U34" t="s"/>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="X34" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="Y34" t="s">
-        <v>361</v>
+        <v>322</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>52099</v>
       </c>
-      <c r="B35" t="n">
-        <v>508</v>
-      </c>
-      <c r="C35" t="s">
-        <v>362</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>363</v>
+        <v>323</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>364</v>
+        <v>324</v>
       </c>
       <c r="J35" t="s">
-        <v>365</v>
+        <v>325</v>
       </c>
       <c r="K35" t="s">
-        <v>366</v>
+        <v>326</v>
       </c>
       <c r="L35" t="s">
-        <v>367</v>
+        <v>327</v>
       </c>
       <c r="M35" t="n">
-        <v>4</v>
-      </c>
-      <c r="N35" t="s">
-        <v>368</v>
-      </c>
-      <c r="O35" t="s">
-        <v>53</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
-      <c r="R35" t="n">
-        <v>4</v>
-      </c>
+      <c r="R35" t="s"/>
       <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>4</v>
-      </c>
+      <c r="U35" t="s"/>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="X35" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Y35" t="s">
-        <v>369</v>
+        <v>330</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>52099</v>
       </c>
-      <c r="B36" t="n">
-        <v>156157</v>
-      </c>
-      <c r="C36" t="s">
-        <v>370</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>371</v>
+        <v>331</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>372</v>
+        <v>332</v>
       </c>
       <c r="J36" t="s">
-        <v>373</v>
+        <v>333</v>
       </c>
       <c r="K36" t="s">
-        <v>374</v>
+        <v>334</v>
       </c>
       <c r="L36" t="s">
-        <v>375</v>
+        <v>335</v>
       </c>
       <c r="M36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>368</v>
+        <v>336</v>
       </c>
       <c r="O36" t="s">
-        <v>72</v>
-      </c>
-      <c r="P36" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>3</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
       <c r="R36" t="s"/>
       <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="n">
-        <v>3</v>
-      </c>
+      <c r="U36" t="s"/>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>376</v>
+        <v>337</v>
       </c>
       <c r="X36" t="s">
-        <v>377</v>
+        <v>338</v>
       </c>
       <c r="Y36" t="s">
-        <v>378</v>
+        <v>339</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>52099</v>
       </c>
-      <c r="B37" t="n">
-        <v>19183</v>
-      </c>
-      <c r="C37" t="s">
-        <v>379</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I37" t="s">
-        <v>381</v>
+        <v>341</v>
       </c>
       <c r="J37" t="s">
-        <v>382</v>
+        <v>342</v>
       </c>
       <c r="K37" t="s">
-        <v>383</v>
+        <v>343</v>
       </c>
       <c r="L37" t="s">
-        <v>384</v>
+        <v>344</v>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>385</v>
+        <v>345</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>203</v>
       </c>
       <c r="P37" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q37" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2</v>
+      </c>
       <c r="R37" t="s"/>
       <c r="S37" t="s"/>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="X37" t="s">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="Y37" t="s">
-        <v>386</v>
+        <v>348</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>52099</v>
       </c>
-      <c r="B38" t="n">
-        <v>156158</v>
-      </c>
-      <c r="C38" t="s">
-        <v>387</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>388</v>
+        <v>349</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I38" t="s">
-        <v>389</v>
+        <v>350</v>
       </c>
       <c r="J38" t="s">
-        <v>390</v>
+        <v>351</v>
       </c>
       <c r="K38" t="s">
-        <v>391</v>
+        <v>352</v>
       </c>
       <c r="L38" t="s">
-        <v>392</v>
+        <v>353</v>
       </c>
       <c r="M38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>393</v>
+        <v>354</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P38" t="s"/>
-      <c r="Q38" t="s"/>
-      <c r="R38" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="s"/>
       <c r="S38" t="s"/>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>327</v>
+        <v>355</v>
       </c>
       <c r="X38" t="s">
-        <v>328</v>
+        <v>356</v>
       </c>
       <c r="Y38" t="s">
-        <v>394</v>
+        <v>357</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>52099</v>
       </c>
-      <c r="B39" t="n">
-        <v>156159</v>
-      </c>
-      <c r="C39" t="s">
-        <v>395</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>396</v>
+        <v>358</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I39" t="s">
-        <v>397</v>
+        <v>359</v>
       </c>
       <c r="J39" t="s">
-        <v>398</v>
+        <v>360</v>
       </c>
       <c r="K39" t="s">
-        <v>399</v>
+        <v>361</v>
       </c>
       <c r="L39" t="s">
-        <v>400</v>
+        <v>362</v>
       </c>
       <c r="M39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>401</v>
+        <v>363</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P39" t="s"/>
-      <c r="Q39" t="s"/>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
       <c r="R39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S39" t="s"/>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="X39" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="Y39" t="s">
-        <v>402</v>
+        <v>366</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>52099</v>
       </c>
-      <c r="B40" t="n">
-        <v>156160</v>
-      </c>
-      <c r="C40" t="s">
-        <v>403</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>404</v>
+        <v>367</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I40" t="s">
-        <v>405</v>
+        <v>368</v>
       </c>
       <c r="J40" t="s">
-        <v>406</v>
+        <v>369</v>
       </c>
       <c r="K40" t="s">
-        <v>407</v>
+        <v>370</v>
       </c>
       <c r="L40" t="s">
-        <v>408</v>
+        <v>371</v>
       </c>
       <c r="M40" t="n">
-        <v>5</v>
-      </c>
-      <c r="N40" t="s">
-        <v>409</v>
-      </c>
-      <c r="O40" t="s">
-        <v>53</v>
-      </c>
-      <c r="P40" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>5</v>
-      </c>
-      <c r="R40" t="n">
-        <v>5</v>
-      </c>
-      <c r="S40" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="n">
-        <v>5</v>
-      </c>
+      <c r="U40" t="s"/>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>318</v>
+        <v>372</v>
       </c>
       <c r="X40" t="s">
-        <v>319</v>
+        <v>373</v>
       </c>
       <c r="Y40" t="s">
-        <v>410</v>
+        <v>374</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>52099</v>
       </c>
-      <c r="B41" t="n">
-        <v>156161</v>
-      </c>
-      <c r="C41" t="s">
-        <v>411</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>412</v>
+        <v>375</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I41" t="s">
-        <v>413</v>
+        <v>376</v>
       </c>
       <c r="J41" t="s">
-        <v>414</v>
+        <v>377</v>
       </c>
       <c r="K41" t="s">
-        <v>415</v>
+        <v>378</v>
       </c>
       <c r="L41" t="s">
-        <v>416</v>
+        <v>379</v>
       </c>
       <c r="M41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>409</v>
+        <v>380</v>
       </c>
       <c r="O41" t="s">
-        <v>72</v>
-      </c>
-      <c r="P41" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>5</v>
-      </c>
-      <c r="R41" t="n">
-        <v>5</v>
-      </c>
-      <c r="S41" t="n">
-        <v>5</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
-      <c r="U41" t="n">
-        <v>5</v>
-      </c>
+      <c r="U41" t="s"/>
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
+      <c r="W41" t="s">
+        <v>381</v>
+      </c>
+      <c r="X41" t="s">
+        <v>382</v>
+      </c>
       <c r="Y41" t="s">
-        <v>417</v>
+        <v>383</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>52099</v>
       </c>
-      <c r="B42" t="n">
-        <v>156162</v>
-      </c>
-      <c r="C42" t="s">
-        <v>418</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>419</v>
+        <v>384</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I42" t="s">
-        <v>420</v>
+        <v>385</v>
       </c>
       <c r="J42" t="s">
-        <v>421</v>
+        <v>386</v>
       </c>
       <c r="K42" t="s">
-        <v>422</v>
+        <v>387</v>
       </c>
       <c r="L42" t="s">
-        <v>423</v>
+        <v>388</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
-      <c r="N42" t="s"/>
-      <c r="O42" t="s"/>
-      <c r="P42" t="n">
-        <v>4</v>
-      </c>
+      <c r="N42" t="s">
+        <v>380</v>
+      </c>
+      <c r="O42" t="s">
+        <v>203</v>
+      </c>
+      <c r="P42" t="s"/>
       <c r="Q42" t="n">
         <v>4</v>
       </c>
       <c r="R42" t="n">
-        <v>5</v>
-      </c>
-      <c r="S42" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
+      <c r="W42" t="s">
+        <v>389</v>
+      </c>
+      <c r="X42" t="s">
+        <v>390</v>
+      </c>
       <c r="Y42" t="s">
-        <v>423</v>
+        <v>391</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>52099</v>
       </c>
-      <c r="B43" t="n">
-        <v>156163</v>
-      </c>
-      <c r="C43" t="s">
-        <v>424</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>425</v>
+        <v>392</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I43" t="s">
-        <v>426</v>
+        <v>393</v>
       </c>
       <c r="J43" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="K43" t="s">
-        <v>428</v>
+        <v>395</v>
       </c>
       <c r="L43" t="s">
-        <v>429</v>
+        <v>396</v>
       </c>
       <c r="M43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>430</v>
+        <v>397</v>
       </c>
       <c r="O43" t="s">
-        <v>152</v>
-      </c>
-      <c r="P43" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>5</v>
-      </c>
-      <c r="R43" t="n">
-        <v>5</v>
-      </c>
-      <c r="S43" t="n">
-        <v>4</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
-      <c r="U43" t="n">
-        <v>5</v>
-      </c>
+      <c r="U43" t="s"/>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>431</v>
+        <v>398</v>
       </c>
       <c r="X43" t="s">
-        <v>432</v>
+        <v>399</v>
       </c>
       <c r="Y43" t="s">
-        <v>433</v>
+        <v>400</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>52099</v>
       </c>
-      <c r="B44" t="n">
-        <v>156164</v>
-      </c>
-      <c r="C44" t="s">
-        <v>434</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>435</v>
+        <v>401</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I44" t="s">
-        <v>436</v>
+        <v>402</v>
       </c>
       <c r="J44" t="s">
-        <v>437</v>
+        <v>403</v>
       </c>
       <c r="K44" t="s">
-        <v>438</v>
+        <v>404</v>
       </c>
       <c r="L44" t="s">
-        <v>439</v>
+        <v>405</v>
       </c>
       <c r="M44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>440</v>
+        <v>397</v>
       </c>
       <c r="O44" t="s">
-        <v>72</v>
-      </c>
-      <c r="P44" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>4</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
       <c r="R44" t="n">
         <v>4</v>
       </c>
@@ -5007,132 +5316,136 @@
       </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
+      <c r="W44" t="s">
+        <v>406</v>
+      </c>
+      <c r="X44" t="s">
+        <v>407</v>
+      </c>
       <c r="Y44" t="s">
-        <v>439</v>
+        <v>408</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>52099</v>
       </c>
-      <c r="B45" t="n">
-        <v>156165</v>
-      </c>
-      <c r="C45" t="s">
-        <v>441</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>442</v>
+        <v>409</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I45" t="s">
-        <v>443</v>
+        <v>410</v>
       </c>
       <c r="J45" t="s">
-        <v>444</v>
+        <v>411</v>
       </c>
       <c r="K45" t="s">
-        <v>445</v>
+        <v>412</v>
       </c>
       <c r="L45" t="s">
-        <v>446</v>
+        <v>413</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>447</v>
+        <v>414</v>
       </c>
       <c r="O45" t="s">
-        <v>72</v>
-      </c>
-      <c r="P45" t="s"/>
-      <c r="Q45" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
       <c r="R45" t="s"/>
       <c r="S45" t="s"/>
       <c r="T45" t="s"/>
-      <c r="U45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
+      <c r="W45" t="s">
+        <v>406</v>
+      </c>
+      <c r="X45" t="s">
+        <v>407</v>
+      </c>
       <c r="Y45" t="s">
-        <v>446</v>
+        <v>415</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>52099</v>
       </c>
-      <c r="B46" t="n">
-        <v>156166</v>
-      </c>
-      <c r="C46" t="s">
-        <v>448</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>449</v>
+        <v>416</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I46" t="s">
-        <v>450</v>
+        <v>417</v>
       </c>
       <c r="J46" t="s">
-        <v>451</v>
+        <v>418</v>
       </c>
       <c r="K46" t="s">
-        <v>452</v>
+        <v>419</v>
       </c>
       <c r="L46" t="s">
-        <v>453</v>
+        <v>420</v>
       </c>
       <c r="M46" t="n">
-        <v>3</v>
-      </c>
-      <c r="N46" t="s"/>
-      <c r="O46" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>421</v>
+      </c>
+      <c r="O46" t="s">
+        <v>203</v>
+      </c>
       <c r="P46" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>4</v>
-      </c>
-      <c r="R46" t="n">
-        <v>5</v>
-      </c>
-      <c r="S46" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
         <v>4</v>
@@ -5141,138 +5454,120 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>454</v>
+        <v>422</v>
       </c>
       <c r="X46" t="s">
-        <v>455</v>
+        <v>423</v>
       </c>
       <c r="Y46" t="s">
-        <v>456</v>
+        <v>424</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>52099</v>
       </c>
-      <c r="B47" t="n">
-        <v>8371</v>
-      </c>
-      <c r="C47" t="s">
-        <v>457</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F47" t="s">
-        <v>458</v>
+        <v>425</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I47" t="s">
-        <v>459</v>
+        <v>426</v>
       </c>
       <c r="J47" t="s">
-        <v>460</v>
+        <v>427</v>
       </c>
       <c r="K47" t="s">
-        <v>461</v>
+        <v>428</v>
       </c>
       <c r="L47" t="s">
-        <v>462</v>
+        <v>429</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>463</v>
+        <v>430</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
-      </c>
-      <c r="P47" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>4</v>
-      </c>
-      <c r="R47" t="n">
-        <v>3</v>
-      </c>
-      <c r="S47" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
-      <c r="U47" t="n">
-        <v>5</v>
-      </c>
+      <c r="U47" t="s"/>
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s"/>
-      <c r="X47" t="s"/>
+      <c r="W47" t="s">
+        <v>431</v>
+      </c>
+      <c r="X47" t="s">
+        <v>432</v>
+      </c>
       <c r="Y47" t="s">
-        <v>464</v>
+        <v>433</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>52099</v>
       </c>
-      <c r="B48" t="n">
-        <v>156167</v>
-      </c>
-      <c r="C48" t="s">
-        <v>465</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>466</v>
+        <v>434</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I48" t="s">
-        <v>467</v>
+        <v>435</v>
       </c>
       <c r="J48" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="K48" t="s">
-        <v>469</v>
+        <v>437</v>
       </c>
       <c r="L48" t="s">
-        <v>470</v>
+        <v>438</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>471</v>
+        <v>430</v>
       </c>
       <c r="O48" t="s">
-        <v>72</v>
-      </c>
-      <c r="P48" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
       <c r="R48" t="n">
         <v>5</v>
       </c>
@@ -5286,275 +5581,243 @@
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s"/>
-      <c r="X48" t="s"/>
+      <c r="W48" t="s">
+        <v>439</v>
+      </c>
+      <c r="X48" t="s">
+        <v>440</v>
+      </c>
       <c r="Y48" t="s">
-        <v>470</v>
+        <v>441</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>52099</v>
       </c>
-      <c r="B49" t="n">
-        <v>156168</v>
-      </c>
-      <c r="C49" t="s">
-        <v>472</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F49" t="s">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I49" t="s">
-        <v>474</v>
+        <v>443</v>
       </c>
       <c r="J49" t="s">
-        <v>475</v>
+        <v>444</v>
       </c>
       <c r="K49" t="s">
-        <v>476</v>
+        <v>445</v>
       </c>
       <c r="L49" t="s">
-        <v>477</v>
+        <v>446</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
-      <c r="N49" t="s">
-        <v>447</v>
-      </c>
-      <c r="O49" t="s">
-        <v>72</v>
-      </c>
-      <c r="P49" t="n">
-        <v>4</v>
-      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
+      <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
       <c r="R49" t="s"/>
-      <c r="S49" t="n">
-        <v>5</v>
-      </c>
+      <c r="S49" t="s"/>
       <c r="T49" t="s"/>
-      <c r="U49" t="n">
-        <v>5</v>
-      </c>
+      <c r="U49" t="s"/>
       <c r="V49" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="s"/>
-      <c r="X49" t="s"/>
+      <c r="W49" t="s">
+        <v>439</v>
+      </c>
+      <c r="X49" t="s">
+        <v>440</v>
+      </c>
       <c r="Y49" t="s">
-        <v>477</v>
+        <v>447</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>52099</v>
       </c>
-      <c r="B50" t="n">
-        <v>156169</v>
-      </c>
-      <c r="C50" t="s">
-        <v>478</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F50" t="s">
-        <v>479</v>
+        <v>448</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I50" t="s">
-        <v>480</v>
+        <v>449</v>
       </c>
       <c r="J50" t="s">
-        <v>481</v>
+        <v>450</v>
       </c>
       <c r="K50" t="s">
-        <v>482</v>
+        <v>451</v>
       </c>
       <c r="L50" t="s">
-        <v>483</v>
+        <v>452</v>
       </c>
       <c r="M50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>484</v>
+        <v>453</v>
       </c>
       <c r="O50" t="s">
-        <v>72</v>
-      </c>
-      <c r="P50" t="n">
-        <v>4</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
       <c r="R50" t="s"/>
-      <c r="S50" t="n">
-        <v>5</v>
-      </c>
+      <c r="S50" t="s"/>
       <c r="T50" t="s"/>
-      <c r="U50" t="n">
-        <v>4</v>
-      </c>
+      <c r="U50" t="s"/>
       <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="W50" t="s"/>
-      <c r="X50" t="s"/>
+      <c r="W50" t="s">
+        <v>454</v>
+      </c>
+      <c r="X50" t="s">
+        <v>455</v>
+      </c>
       <c r="Y50" t="s">
-        <v>483</v>
+        <v>456</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>52099</v>
       </c>
-      <c r="B51" t="n">
-        <v>156170</v>
-      </c>
-      <c r="C51" t="s">
-        <v>485</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F51" t="s">
-        <v>486</v>
+        <v>457</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I51" t="s">
-        <v>487</v>
+        <v>458</v>
       </c>
       <c r="J51" t="s">
-        <v>488</v>
+        <v>459</v>
       </c>
       <c r="K51" t="s">
-        <v>489</v>
+        <v>460</v>
       </c>
       <c r="L51" t="s">
-        <v>490</v>
+        <v>461</v>
       </c>
       <c r="M51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>491</v>
+        <v>421</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
-      </c>
-      <c r="P51" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>4</v>
-      </c>
-      <c r="R51" t="n">
-        <v>3</v>
-      </c>
-      <c r="S51" t="n">
-        <v>4</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
       <c r="T51" t="s"/>
-      <c r="U51" t="n">
-        <v>5</v>
-      </c>
+      <c r="U51" t="s"/>
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s"/>
-      <c r="X51" t="s"/>
+      <c r="W51" t="s">
+        <v>454</v>
+      </c>
+      <c r="X51" t="s">
+        <v>455</v>
+      </c>
       <c r="Y51" t="s">
-        <v>490</v>
+        <v>462</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>52099</v>
       </c>
-      <c r="B52" t="n">
-        <v>156171</v>
-      </c>
-      <c r="C52" t="s">
-        <v>492</v>
-      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F52" t="s">
-        <v>493</v>
+        <v>463</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I52" t="s">
-        <v>494</v>
+        <v>464</v>
       </c>
       <c r="J52" t="s">
-        <v>495</v>
+        <v>465</v>
       </c>
       <c r="K52" t="s">
-        <v>496</v>
+        <v>466</v>
       </c>
       <c r="L52" t="s">
-        <v>497</v>
+        <v>467</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>498</v>
+        <v>468</v>
       </c>
       <c r="O52" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
       </c>
-      <c r="Q52" t="n">
-        <v>5</v>
-      </c>
-      <c r="R52" t="n">
-        <v>5</v>
-      </c>
-      <c r="S52" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
         <v>5</v>
@@ -5562,70 +5825,64 @@
       <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W52" t="s"/>
-      <c r="X52" t="s"/>
+      <c r="W52" t="s">
+        <v>439</v>
+      </c>
+      <c r="X52" t="s">
+        <v>440</v>
+      </c>
       <c r="Y52" t="s">
-        <v>499</v>
+        <v>469</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>52099</v>
       </c>
-      <c r="B53" t="n">
-        <v>35786</v>
-      </c>
-      <c r="C53" t="s">
-        <v>500</v>
-      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F53" t="s">
-        <v>501</v>
+        <v>470</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I53" t="s">
-        <v>502</v>
+        <v>471</v>
       </c>
       <c r="J53" t="s">
-        <v>503</v>
+        <v>472</v>
       </c>
       <c r="K53" t="s">
-        <v>504</v>
+        <v>473</v>
       </c>
       <c r="L53" t="s">
-        <v>505</v>
+        <v>474</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>506</v>
+        <v>475</v>
       </c>
       <c r="O53" t="s">
-        <v>72</v>
-      </c>
-      <c r="P53" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>3</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
       <c r="R53" t="n">
-        <v>3</v>
-      </c>
-      <c r="S53" t="n">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S53" t="s"/>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
         <v>4</v>
@@ -5633,137 +5890,131 @@
       <c r="V53" t="n">
         <v>0</v>
       </c>
-      <c r="W53" t="s"/>
-      <c r="X53" t="s"/>
+      <c r="W53" t="s">
+        <v>439</v>
+      </c>
+      <c r="X53" t="s">
+        <v>440</v>
+      </c>
       <c r="Y53" t="s">
-        <v>505</v>
+        <v>476</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>52099</v>
       </c>
-      <c r="B54" t="n">
-        <v>156172</v>
-      </c>
-      <c r="C54" t="s">
-        <v>507</v>
-      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F54" t="s">
-        <v>508</v>
+        <v>477</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I54" t="s">
-        <v>509</v>
+        <v>478</v>
       </c>
       <c r="J54" t="s">
-        <v>510</v>
+        <v>479</v>
       </c>
       <c r="K54" t="s">
-        <v>511</v>
+        <v>480</v>
       </c>
       <c r="L54" t="s">
-        <v>512</v>
+        <v>481</v>
       </c>
       <c r="M54" t="n">
         <v>2</v>
       </c>
-      <c r="N54" t="s"/>
-      <c r="O54" t="s"/>
+      <c r="N54" t="s">
+        <v>475</v>
+      </c>
+      <c r="O54" t="s">
+        <v>52</v>
+      </c>
       <c r="P54" t="n">
         <v>2</v>
       </c>
       <c r="Q54" t="n">
-        <v>2</v>
-      </c>
-      <c r="R54" t="n">
-        <v>5</v>
-      </c>
-      <c r="S54" t="n">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="s"/>
-      <c r="X54" t="s"/>
+      <c r="W54" t="s">
+        <v>482</v>
+      </c>
+      <c r="X54" t="s">
+        <v>483</v>
+      </c>
       <c r="Y54" t="s">
-        <v>512</v>
+        <v>484</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>52099</v>
       </c>
-      <c r="B55" t="n">
-        <v>156173</v>
-      </c>
-      <c r="C55" t="s">
-        <v>513</v>
-      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F55" t="s">
-        <v>514</v>
+        <v>485</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I55" t="s">
-        <v>515</v>
+        <v>486</v>
       </c>
       <c r="J55" t="s">
-        <v>516</v>
+        <v>487</v>
       </c>
       <c r="K55" t="s">
-        <v>517</v>
+        <v>488</v>
       </c>
       <c r="L55" t="s">
-        <v>518</v>
+        <v>489</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>519</v>
+        <v>490</v>
       </c>
       <c r="O55" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
       </c>
-      <c r="Q55" t="n">
-        <v>5</v>
-      </c>
-      <c r="R55" t="n">
-        <v>5</v>
-      </c>
-      <c r="S55" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
       <c r="T55" t="s"/>
       <c r="U55" t="n">
         <v>5</v>
@@ -5771,70 +6022,64 @@
       <c r="V55" t="n">
         <v>0</v>
       </c>
-      <c r="W55" t="s"/>
-      <c r="X55" t="s"/>
+      <c r="W55" t="s">
+        <v>439</v>
+      </c>
+      <c r="X55" t="s">
+        <v>440</v>
+      </c>
       <c r="Y55" t="s">
-        <v>518</v>
+        <v>491</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>52099</v>
       </c>
-      <c r="B56" t="n">
-        <v>156174</v>
-      </c>
-      <c r="C56" t="s">
-        <v>520</v>
-      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F56" t="s">
-        <v>521</v>
+        <v>492</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I56" t="s">
-        <v>522</v>
+        <v>493</v>
       </c>
       <c r="J56" t="s">
-        <v>523</v>
+        <v>494</v>
       </c>
       <c r="K56" t="s">
-        <v>524</v>
+        <v>495</v>
       </c>
       <c r="L56" t="s">
-        <v>525</v>
+        <v>496</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>526</v>
+        <v>497</v>
       </c>
       <c r="O56" t="s">
-        <v>72</v>
-      </c>
-      <c r="P56" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
       <c r="R56" t="n">
-        <v>5</v>
-      </c>
-      <c r="S56" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S56" t="s"/>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
         <v>5</v>
@@ -5842,10 +6087,1992 @@
       <c r="V56" t="n">
         <v>0</v>
       </c>
-      <c r="W56" t="s"/>
-      <c r="X56" t="s"/>
+      <c r="W56" t="s">
+        <v>439</v>
+      </c>
+      <c r="X56" t="s">
+        <v>440</v>
+      </c>
       <c r="Y56" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>52099</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>499</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>500</v>
+      </c>
+      <c r="J57" t="s">
+        <v>501</v>
+      </c>
+      <c r="K57" t="s">
+        <v>502</v>
+      </c>
+      <c r="L57" t="s">
+        <v>503</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>504</v>
+      </c>
+      <c r="O57" t="s">
+        <v>59</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>439</v>
+      </c>
+      <c r="X57" t="s">
+        <v>440</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>52099</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>506</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>507</v>
+      </c>
+      <c r="J58" t="s">
+        <v>508</v>
+      </c>
+      <c r="K58" t="s">
+        <v>509</v>
+      </c>
+      <c r="L58" t="s">
+        <v>510</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>511</v>
+      </c>
+      <c r="O58" t="s">
+        <v>59</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>431</v>
+      </c>
+      <c r="X58" t="s">
+        <v>432</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>52099</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>513</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>514</v>
+      </c>
+      <c r="J59" t="s">
+        <v>515</v>
+      </c>
+      <c r="K59" t="s">
+        <v>516</v>
+      </c>
+      <c r="L59" t="s">
+        <v>517</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>511</v>
+      </c>
+      <c r="O59" t="s">
+        <v>52</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>52099</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>519</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>520</v>
+      </c>
+      <c r="J60" t="s">
+        <v>521</v>
+      </c>
+      <c r="K60" t="s">
+        <v>522</v>
+      </c>
+      <c r="L60" t="s">
+        <v>523</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="s">
+        <v>524</v>
+      </c>
+      <c r="O60" t="s">
+        <v>52</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="s"/>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
         <v>525</v>
+      </c>
+      <c r="X60" t="s">
+        <v>526</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>52099</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>528</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>529</v>
+      </c>
+      <c r="J61" t="s">
+        <v>530</v>
+      </c>
+      <c r="K61" t="s">
+        <v>531</v>
+      </c>
+      <c r="L61" t="s">
+        <v>532</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" t="s">
+        <v>533</v>
+      </c>
+      <c r="O61" t="s">
+        <v>68</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>3</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>3</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>534</v>
+      </c>
+      <c r="X61" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>52099</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>537</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>538</v>
+      </c>
+      <c r="J62" t="s">
+        <v>539</v>
+      </c>
+      <c r="K62" t="s">
+        <v>540</v>
+      </c>
+      <c r="L62" t="s">
+        <v>541</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>542</v>
+      </c>
+      <c r="O62" t="s">
+        <v>68</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>52099</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>543</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>544</v>
+      </c>
+      <c r="J63" t="s">
+        <v>545</v>
+      </c>
+      <c r="K63" t="s">
+        <v>546</v>
+      </c>
+      <c r="L63" t="s">
+        <v>547</v>
+      </c>
+      <c r="M63" t="n">
+        <v>2</v>
+      </c>
+      <c r="N63" t="s">
+        <v>548</v>
+      </c>
+      <c r="O63" t="s">
+        <v>68</v>
+      </c>
+      <c r="P63" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>2</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>2</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>2</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>549</v>
+      </c>
+      <c r="X63" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>52099</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>552</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>553</v>
+      </c>
+      <c r="J64" t="s">
+        <v>554</v>
+      </c>
+      <c r="K64" t="s">
+        <v>555</v>
+      </c>
+      <c r="L64" t="s">
+        <v>556</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>548</v>
+      </c>
+      <c r="O64" t="s">
+        <v>52</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>52099</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>558</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>559</v>
+      </c>
+      <c r="J65" t="s">
+        <v>560</v>
+      </c>
+      <c r="K65" t="s">
+        <v>561</v>
+      </c>
+      <c r="L65" t="s">
+        <v>562</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>563</v>
+      </c>
+      <c r="O65" t="s">
+        <v>52</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>52099</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>564</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>565</v>
+      </c>
+      <c r="J66" t="s">
+        <v>566</v>
+      </c>
+      <c r="K66" t="s">
+        <v>567</v>
+      </c>
+      <c r="L66" t="s">
+        <v>568</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s"/>
+      <c r="O66" t="s"/>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>52099</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>570</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>571</v>
+      </c>
+      <c r="J67" t="s">
+        <v>572</v>
+      </c>
+      <c r="K67" t="s">
+        <v>573</v>
+      </c>
+      <c r="L67" t="s">
+        <v>574</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>575</v>
+      </c>
+      <c r="O67" t="s">
+        <v>68</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>52099</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>576</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>577</v>
+      </c>
+      <c r="J68" t="s">
+        <v>578</v>
+      </c>
+      <c r="K68" t="s">
+        <v>579</v>
+      </c>
+      <c r="L68" t="s">
+        <v>580</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s"/>
+      <c r="O68" t="s"/>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>52099</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>581</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>582</v>
+      </c>
+      <c r="J69" t="s">
+        <v>583</v>
+      </c>
+      <c r="K69" t="s">
+        <v>584</v>
+      </c>
+      <c r="L69" t="s">
+        <v>585</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s">
+        <v>575</v>
+      </c>
+      <c r="O69" t="s">
+        <v>59</v>
+      </c>
+      <c r="P69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>2</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>586</v>
+      </c>
+      <c r="X69" t="s">
+        <v>587</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>52099</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>589</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>590</v>
+      </c>
+      <c r="J70" t="s">
+        <v>591</v>
+      </c>
+      <c r="K70" t="s">
+        <v>592</v>
+      </c>
+      <c r="L70" t="s">
+        <v>593</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s"/>
+      <c r="O70" t="s"/>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>3</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>52099</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>594</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
+        <v>595</v>
+      </c>
+      <c r="J71" t="s">
+        <v>596</v>
+      </c>
+      <c r="K71" t="s">
+        <v>597</v>
+      </c>
+      <c r="L71" t="s">
+        <v>598</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="s">
+        <v>599</v>
+      </c>
+      <c r="O71" t="s">
+        <v>203</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>600</v>
+      </c>
+      <c r="X71" t="s">
+        <v>601</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>52099</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>603</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>604</v>
+      </c>
+      <c r="J72" t="s">
+        <v>605</v>
+      </c>
+      <c r="K72" t="s">
+        <v>606</v>
+      </c>
+      <c r="L72" t="s">
+        <v>607</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>608</v>
+      </c>
+      <c r="O72" t="s">
+        <v>52</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>52099</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s">
+        <v>609</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s">
+        <v>610</v>
+      </c>
+      <c r="J73" t="s">
+        <v>611</v>
+      </c>
+      <c r="K73" t="s">
+        <v>612</v>
+      </c>
+      <c r="L73" t="s">
+        <v>613</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>614</v>
+      </c>
+      <c r="O73" t="s">
+        <v>52</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="s"/>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>52099</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s">
+        <v>615</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>616</v>
+      </c>
+      <c r="J74" t="s">
+        <v>617</v>
+      </c>
+      <c r="K74" t="s">
+        <v>618</v>
+      </c>
+      <c r="L74" t="s">
+        <v>619</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="s"/>
+      <c r="O74" t="s"/>
+      <c r="P74" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>620</v>
+      </c>
+      <c r="X74" t="s">
+        <v>621</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>52099</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s">
+        <v>623</v>
+      </c>
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" t="s">
+        <v>624</v>
+      </c>
+      <c r="J75" t="s">
+        <v>625</v>
+      </c>
+      <c r="K75" t="s">
+        <v>626</v>
+      </c>
+      <c r="L75" t="s">
+        <v>627</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>628</v>
+      </c>
+      <c r="O75" t="s">
+        <v>59</v>
+      </c>
+      <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>3</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>52099</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s">
+        <v>630</v>
+      </c>
+      <c r="G76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s">
+        <v>46</v>
+      </c>
+      <c r="I76" t="s">
+        <v>631</v>
+      </c>
+      <c r="J76" t="s">
+        <v>632</v>
+      </c>
+      <c r="K76" t="s">
+        <v>633</v>
+      </c>
+      <c r="L76" t="s">
+        <v>634</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>635</v>
+      </c>
+      <c r="O76" t="s">
+        <v>52</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>52099</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s">
+        <v>636</v>
+      </c>
+      <c r="G77" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77" t="s">
+        <v>46</v>
+      </c>
+      <c r="I77" t="s">
+        <v>637</v>
+      </c>
+      <c r="J77" t="s">
+        <v>638</v>
+      </c>
+      <c r="K77" t="s">
+        <v>639</v>
+      </c>
+      <c r="L77" t="s">
+        <v>640</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>614</v>
+      </c>
+      <c r="O77" t="s">
+        <v>52</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="s"/>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>52099</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s">
+        <v>641</v>
+      </c>
+      <c r="G78" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s">
+        <v>46</v>
+      </c>
+      <c r="I78" t="s">
+        <v>642</v>
+      </c>
+      <c r="J78" t="s">
+        <v>643</v>
+      </c>
+      <c r="K78" t="s">
+        <v>644</v>
+      </c>
+      <c r="L78" t="s">
+        <v>645</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>646</v>
+      </c>
+      <c r="O78" t="s">
+        <v>52</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="s"/>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>52099</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s">
+        <v>647</v>
+      </c>
+      <c r="G79" t="s">
+        <v>45</v>
+      </c>
+      <c r="H79" t="s">
+        <v>46</v>
+      </c>
+      <c r="I79" t="s">
+        <v>648</v>
+      </c>
+      <c r="J79" t="s">
+        <v>649</v>
+      </c>
+      <c r="K79" t="s">
+        <v>650</v>
+      </c>
+      <c r="L79" t="s">
+        <v>651</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>652</v>
+      </c>
+      <c r="O79" t="s">
+        <v>59</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>3</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>52099</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" t="s">
+        <v>653</v>
+      </c>
+      <c r="G80" t="s">
+        <v>45</v>
+      </c>
+      <c r="H80" t="s">
+        <v>46</v>
+      </c>
+      <c r="I80" t="s">
+        <v>654</v>
+      </c>
+      <c r="J80" t="s">
+        <v>655</v>
+      </c>
+      <c r="K80" t="s">
+        <v>656</v>
+      </c>
+      <c r="L80" t="s">
+        <v>657</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>658</v>
+      </c>
+      <c r="O80" t="s">
+        <v>52</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>52099</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" t="s">
+        <v>660</v>
+      </c>
+      <c r="G81" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" t="s">
+        <v>46</v>
+      </c>
+      <c r="I81" t="s">
+        <v>661</v>
+      </c>
+      <c r="J81" t="s">
+        <v>662</v>
+      </c>
+      <c r="K81" t="s">
+        <v>663</v>
+      </c>
+      <c r="L81" t="s">
+        <v>664</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>665</v>
+      </c>
+      <c r="O81" t="s">
+        <v>52</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>3</v>
+      </c>
+      <c r="R81" t="n">
+        <v>3</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>52099</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" t="s">
+        <v>666</v>
+      </c>
+      <c r="G82" t="s">
+        <v>45</v>
+      </c>
+      <c r="H82" t="s">
+        <v>46</v>
+      </c>
+      <c r="I82" t="s">
+        <v>667</v>
+      </c>
+      <c r="J82" t="s">
+        <v>668</v>
+      </c>
+      <c r="K82" t="s">
+        <v>669</v>
+      </c>
+      <c r="L82" t="s">
+        <v>670</v>
+      </c>
+      <c r="M82" t="n">
+        <v>2</v>
+      </c>
+      <c r="N82" t="s"/>
+      <c r="O82" t="s"/>
+      <c r="P82" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>2</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>2</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>2</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>52099</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83" t="s">
+        <v>671</v>
+      </c>
+      <c r="G83" t="s">
+        <v>45</v>
+      </c>
+      <c r="H83" t="s">
+        <v>46</v>
+      </c>
+      <c r="I83" t="s">
+        <v>672</v>
+      </c>
+      <c r="J83" t="s">
+        <v>673</v>
+      </c>
+      <c r="K83" t="s">
+        <v>674</v>
+      </c>
+      <c r="L83" t="s">
+        <v>675</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>676</v>
+      </c>
+      <c r="O83" t="s">
+        <v>52</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>52099</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" t="s">
+        <v>677</v>
+      </c>
+      <c r="G84" t="s">
+        <v>45</v>
+      </c>
+      <c r="H84" t="s">
+        <v>46</v>
+      </c>
+      <c r="I84" t="s">
+        <v>678</v>
+      </c>
+      <c r="J84" t="s">
+        <v>679</v>
+      </c>
+      <c r="K84" t="s">
+        <v>680</v>
+      </c>
+      <c r="L84" t="s">
+        <v>681</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>682</v>
+      </c>
+      <c r="O84" t="s">
+        <v>52</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>52099</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>43</v>
+      </c>
+      <c r="F85" t="s">
+        <v>683</v>
+      </c>
+      <c r="G85" t="s">
+        <v>45</v>
+      </c>
+      <c r="H85" t="s">
+        <v>46</v>
+      </c>
+      <c r="I85" t="s">
+        <v>684</v>
+      </c>
+      <c r="J85" t="s">
+        <v>685</v>
+      </c>
+      <c r="K85" t="s">
+        <v>686</v>
+      </c>
+      <c r="L85" t="s">
+        <v>687</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s"/>
+      <c r="O85" t="s"/>
+      <c r="P85" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>52099</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" t="s">
+        <v>688</v>
+      </c>
+      <c r="G86" t="s">
+        <v>45</v>
+      </c>
+      <c r="H86" t="s">
+        <v>46</v>
+      </c>
+      <c r="I86" t="s">
+        <v>689</v>
+      </c>
+      <c r="J86" t="s">
+        <v>690</v>
+      </c>
+      <c r="K86" t="s">
+        <v>691</v>
+      </c>
+      <c r="L86" t="s">
+        <v>692</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s"/>
+      <c r="O86" t="s"/>
+      <c r="P86" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>4</v>
+      </c>
+      <c r="R86" t="s"/>
+      <c r="S86" t="n">
+        <v>4</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>4</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>693</v>
       </c>
     </row>
   </sheetData>
